--- a/inst/extdata/expt_smry_cptac_gl.xlsx
+++ b/inst/extdata/expt_smry_cptac_gl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ_dev\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$U$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$AB$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -168,7 +168,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samples will be included in analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samples will be included in analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +299,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Another group of contrasts for uses in statistical modelings 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="126">
   <si>
     <t>Description</t>
   </si>
@@ -702,6 +742,12 @@
   </si>
   <si>
     <t>W16</t>
+  </si>
+  <si>
+    <t>Term_3</t>
+  </si>
+  <si>
+    <t>Select_sub</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1445,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1581,6 +1627,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="27" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1914,12 +1975,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,21 +1991,25 @@
     <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.140625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -1966,50 +2031,71 @@
       <c r="G1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="O1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="W1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="Y1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="Z1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="AA1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="AB1" s="52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -2027,38 +2113,51 @@
       <c r="G2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="70"/>
+      <c r="N2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="67">
+      <c r="O2" s="67">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="R2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -2072,38 +2171,51 @@
       <c r="G3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="67">
+      <c r="O3" s="67">
         <v>7</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="R3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="U3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="V3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="14" t="s">
+      <c r="W3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2117,38 +2229,53 @@
       <c r="G4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="67">
+      <c r="O4" s="67">
         <v>1</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25" t="s">
+      <c r="R4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="U4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="V4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="14" t="s">
+      <c r="W4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2162,38 +2289,51 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="67">
+      <c r="O5" s="67">
         <v>1</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25" t="s">
+      <c r="R5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="U5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="V5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="14" t="s">
+      <c r="W5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
@@ -2207,38 +2347,51 @@
       <c r="G6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="71"/>
+      <c r="I6" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="67">
+      <c r="O6" s="67">
         <v>7</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24" t="s">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25" t="s">
+      <c r="R6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="U6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="V6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="14" t="s">
+      <c r="W6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -2252,38 +2405,51 @@
       <c r="G7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="71"/>
+      <c r="I7" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="71"/>
+      <c r="N7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="68">
+      <c r="O7" s="67">
         <v>1</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24" t="s">
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25" t="s">
+      <c r="R7" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="U7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="14" t="s">
+      <c r="W7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2297,38 +2463,51 @@
       <c r="G8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="71"/>
+      <c r="I8" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="68">
+      <c r="O8" s="67">
         <v>7</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24" t="s">
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25" t="s">
+      <c r="R8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="U8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="V8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="14" t="s">
+      <c r="W8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2342,38 +2521,51 @@
       <c r="G9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="68">
+      <c r="O9" s="67">
         <v>7</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24" t="s">
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25" t="s">
+      <c r="R9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="U9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="V9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="14" t="s">
+      <c r="W9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>45</v>
       </c>
@@ -2387,38 +2579,51 @@
       <c r="G10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="71"/>
+      <c r="N10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="68">
+      <c r="O10" s="67">
         <v>1</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29" t="s">
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
+      <c r="R10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="U10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="V10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="14" t="s">
+      <c r="W10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>55</v>
       </c>
@@ -2432,38 +2637,51 @@
       <c r="G11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="68">
+      <c r="O11" s="67">
         <v>7</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29" t="s">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30" t="s">
+      <c r="R11" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="U11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="V11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="14" t="s">
+      <c r="W11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>46</v>
       </c>
@@ -2481,38 +2699,51 @@
       <c r="G12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="72"/>
+      <c r="N12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="67">
+      <c r="O12" s="68">
         <v>2</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39" t="s">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39" t="s">
+      <c r="R12" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="U12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="V12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="33" t="s">
+      <c r="W12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>56</v>
       </c>
@@ -2526,38 +2757,51 @@
       <c r="G13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="72"/>
+      <c r="I13" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="67">
+      <c r="O13" s="68">
         <v>8</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39" t="s">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39" t="s">
+      <c r="R13" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="U13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="43" t="s">
+      <c r="V13" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="33" t="s">
+      <c r="W13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
@@ -2571,38 +2815,53 @@
       <c r="G14" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="73"/>
+      <c r="N14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="67">
+      <c r="O14" s="68">
         <v>2</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46" t="s">
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46" t="s">
+      <c r="R14" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="U14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="V14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="33" t="s">
+      <c r="W14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>48</v>
       </c>
@@ -2616,38 +2875,51 @@
       <c r="G15" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="73"/>
+      <c r="I15" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="73"/>
+      <c r="N15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="67">
+      <c r="O15" s="68">
         <v>2</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46" t="s">
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46" t="s">
+      <c r="R15" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="U15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="46" t="s">
+      <c r="V15" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="33" t="s">
+      <c r="W15" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>57</v>
       </c>
@@ -2661,38 +2933,51 @@
       <c r="G16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="73"/>
+      <c r="I16" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="67">
+      <c r="O16" s="68">
         <v>8</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46" t="s">
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46" t="s">
+      <c r="R16" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="48" t="s">
+      <c r="U16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="49" t="s">
+      <c r="V16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="33" t="s">
+      <c r="W16" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>49</v>
       </c>
@@ -2706,38 +2991,51 @@
       <c r="G17" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="73"/>
+      <c r="I17" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="73"/>
+      <c r="N17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="68">
+      <c r="O17" s="68">
         <v>2</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46" t="s">
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46" t="s">
+      <c r="R17" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="U17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="46" t="s">
+      <c r="V17" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="33" t="s">
+      <c r="W17" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>58</v>
       </c>
@@ -2751,38 +3049,51 @@
       <c r="G18" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="73"/>
+      <c r="I18" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="68">
+      <c r="O18" s="68">
         <v>8</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46" t="s">
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46" t="s">
+      <c r="R18" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="48" t="s">
+      <c r="U18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="49" t="s">
+      <c r="V18" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="33" t="s">
+      <c r="W18" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>59</v>
       </c>
@@ -2796,38 +3107,51 @@
       <c r="G19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="73"/>
+      <c r="I19" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="68">
+      <c r="O19" s="68">
         <v>8</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46" t="s">
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46" t="s">
+      <c r="R19" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="48" t="s">
+      <c r="U19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="49" t="s">
+      <c r="V19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="33" t="s">
+      <c r="W19" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>50</v>
       </c>
@@ -2841,38 +3165,51 @@
       <c r="G20" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="73"/>
+      <c r="I20" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="73"/>
+      <c r="N20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="68">
+      <c r="O20" s="68">
         <v>2</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46" t="s">
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46" t="s">
+      <c r="R20" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="U20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="46" t="s">
+      <c r="V20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="33" t="s">
+      <c r="W20" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>60</v>
       </c>
@@ -2886,38 +3223,51 @@
       <c r="G21" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="73"/>
+      <c r="I21" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="68">
+      <c r="O21" s="68">
         <v>8</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46" t="s">
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L21" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46" t="s">
+      <c r="R21" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="48" t="s">
+      <c r="U21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="V21" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="33" t="s">
+      <c r="W21" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -2935,38 +3285,51 @@
       <c r="G22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="70"/>
+      <c r="N22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="67">
+      <c r="O22" s="67">
         <v>3</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56" t="s">
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20" t="s">
+      <c r="R22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="U22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="P22" s="19" t="s">
+      <c r="V22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="14" t="s">
+      <c r="W22" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
@@ -2980,38 +3343,51 @@
       <c r="G23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="67">
+      <c r="O23" s="67">
         <v>9</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56" t="s">
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20" t="s">
+      <c r="R23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="U23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="V23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="14" t="s">
+      <c r="W23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
@@ -3025,38 +3401,51 @@
       <c r="G24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="71"/>
+      <c r="N24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="67">
+      <c r="O24" s="67">
         <v>3</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57" t="s">
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L24" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25" t="s">
+      <c r="R24" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="U24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="V24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="14" t="s">
+      <c r="W24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
@@ -3070,38 +3459,51 @@
       <c r="G25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="71"/>
+      <c r="N25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="67">
+      <c r="O25" s="67">
         <v>3</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57" t="s">
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25" t="s">
+      <c r="R25" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="U25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="V25" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="14" t="s">
+      <c r="W25" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>101</v>
       </c>
@@ -3115,38 +3517,51 @@
       <c r="G26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="67">
+      <c r="O26" s="67">
         <v>9</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57" t="s">
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25" t="s">
+      <c r="R26" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="U26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P26" s="25" t="s">
+      <c r="V26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="14" t="s">
+      <c r="W26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
@@ -3160,38 +3575,51 @@
       <c r="G27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="71"/>
+      <c r="N27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="68">
+      <c r="O27" s="67">
         <v>3</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57" t="s">
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L27" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25" t="s">
+      <c r="R27" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="U27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="24" t="s">
+      <c r="V27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="14" t="s">
+      <c r="W27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>103</v>
       </c>
@@ -3205,38 +3633,51 @@
       <c r="G28" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="68">
+      <c r="O28" s="67">
         <v>9</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57" t="s">
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25" t="s">
+      <c r="R28" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="U28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P28" s="25" t="s">
+      <c r="V28" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="14" t="s">
+      <c r="W28" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>104</v>
       </c>
@@ -3250,38 +3691,51 @@
       <c r="G29" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="68">
+      <c r="O29" s="67">
         <v>9</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57" t="s">
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L29" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25" t="s">
+      <c r="R29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="U29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P29" s="25" t="s">
+      <c r="V29" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="14" t="s">
+      <c r="W29" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>105</v>
       </c>
@@ -3295,38 +3749,51 @@
       <c r="G30" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="71"/>
+      <c r="N30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="68">
+      <c r="O30" s="67">
         <v>3</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58" t="s">
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="L30" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30" t="s">
+      <c r="R30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="29" t="s">
+      <c r="U30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="P30" s="29" t="s">
+      <c r="V30" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="14" t="s">
+      <c r="W30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>106</v>
       </c>
@@ -3340,38 +3807,51 @@
       <c r="G31" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="68">
+      <c r="O31" s="67">
         <v>9</v>
       </c>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58" t="s">
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30" t="s">
+      <c r="R31" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="32" t="s">
+      <c r="U31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="30" t="s">
+      <c r="V31" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="14" t="s">
+      <c r="W31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>107</v>
       </c>
@@ -3389,38 +3869,51 @@
       <c r="G32" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="72"/>
+      <c r="N32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="67">
+      <c r="O32" s="68">
         <v>4</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38" t="s">
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39" t="s">
+      <c r="R32" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="38" t="s">
+      <c r="U32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="V32" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="33" t="s">
+      <c r="W32" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>109</v>
       </c>
@@ -3434,38 +3927,51 @@
       <c r="G33" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="N33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="67">
+      <c r="O33" s="68">
         <v>10</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38" t="s">
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="L33" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39" t="s">
+      <c r="R33" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O33" s="42" t="s">
+      <c r="U33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="V33" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="33" t="s">
+      <c r="W33" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
@@ -3479,38 +3985,51 @@
       <c r="G34" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" s="73"/>
+      <c r="N34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="67">
+      <c r="O34" s="68">
         <v>4</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45" t="s">
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46" t="s">
+      <c r="R34" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="U34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P34" s="46" t="s">
+      <c r="V34" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="33" t="s">
+      <c r="W34" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
@@ -3524,38 +4043,51 @@
       <c r="G35" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="73"/>
+      <c r="N35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="67">
+      <c r="O35" s="68">
         <v>4</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45" t="s">
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L35" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46" t="s">
+      <c r="R35" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="45" t="s">
+      <c r="U35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P35" s="46" t="s">
+      <c r="V35" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="33" t="s">
+      <c r="W35" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>113</v>
       </c>
@@ -3569,38 +4101,51 @@
       <c r="G36" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="67">
+      <c r="O36" s="68">
         <v>10</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46" t="s">
+      <c r="R36" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O36" s="48" t="s">
+      <c r="U36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P36" s="49" t="s">
+      <c r="V36" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="33" t="s">
+      <c r="W36" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
@@ -3614,38 +4159,51 @@
       <c r="G37" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" s="73"/>
+      <c r="N37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="68">
+      <c r="O37" s="68">
         <v>4</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45" t="s">
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46" t="s">
+      <c r="R37" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O37" s="45" t="s">
+      <c r="U37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P37" s="46" t="s">
+      <c r="V37" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="33" t="s">
+      <c r="W37" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
@@ -3659,38 +4217,51 @@
       <c r="G38" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I38" s="68">
+      <c r="O38" s="68">
         <v>10</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45" t="s">
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L38" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46" t="s">
+      <c r="R38" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O38" s="48" t="s">
+      <c r="U38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="49" t="s">
+      <c r="V38" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="33" t="s">
+      <c r="W38" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
@@ -3704,38 +4275,51 @@
       <c r="G39" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="68">
+      <c r="O39" s="68">
         <v>10</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45" t="s">
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L39" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46" t="s">
+      <c r="R39" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O39" s="48" t="s">
+      <c r="U39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P39" s="49" t="s">
+      <c r="V39" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="33" t="s">
+      <c r="W39" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
@@ -3749,38 +4333,51 @@
       <c r="G40" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="73"/>
+      <c r="N40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="68">
+      <c r="O40" s="68">
         <v>4</v>
       </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45" t="s">
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46" t="s">
+      <c r="R40" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O40" s="45" t="s">
+      <c r="U40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P40" s="46" t="s">
+      <c r="V40" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="33" t="s">
+      <c r="W40" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
@@ -3794,38 +4391,51 @@
       <c r="G41" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="68">
+      <c r="O41" s="68">
         <v>10</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45" t="s">
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L41" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46" t="s">
+      <c r="R41" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O41" s="48" t="s">
+      <c r="U41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P41" s="49" t="s">
+      <c r="V41" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="33" t="s">
+      <c r="W41" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>67</v>
       </c>
@@ -3843,38 +4453,51 @@
       <c r="G42" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L42" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="M42" s="70"/>
+      <c r="N42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="67">
+      <c r="O42" s="67">
         <v>5</v>
       </c>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59" t="s">
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="L42" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20" t="s">
+      <c r="R42" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="19" t="s">
+      <c r="U42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="P42" s="19" t="s">
+      <c r="V42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="14" t="s">
+      <c r="W42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>70</v>
       </c>
@@ -3888,38 +4511,51 @@
       <c r="G43" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="N43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="67">
+      <c r="O43" s="67">
         <v>11</v>
       </c>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59" t="s">
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="L43" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20" t="s">
+      <c r="R43" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="U43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="P43" s="20" t="s">
+      <c r="V43" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="14" t="s">
+      <c r="W43" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>73</v>
       </c>
@@ -3933,38 +4569,51 @@
       <c r="G44" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M44" s="71"/>
+      <c r="N44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="67">
+      <c r="O44" s="67">
         <v>5</v>
       </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60" t="s">
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25" t="s">
+      <c r="R44" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="U44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="V44" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="14" t="s">
+      <c r="W44" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>74</v>
       </c>
@@ -3978,38 +4627,51 @@
       <c r="G45" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="71"/>
+      <c r="N45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="67">
+      <c r="O45" s="67">
         <v>5</v>
       </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60" t="s">
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L45" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25" t="s">
+      <c r="R45" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O45" s="24" t="s">
+      <c r="U45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P45" s="24" t="s">
+      <c r="V45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="14" t="s">
+      <c r="W45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>75</v>
       </c>
@@ -4023,38 +4685,51 @@
       <c r="G46" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="67">
+      <c r="O46" s="67">
         <v>11</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60" t="s">
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L46" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25" t="s">
+      <c r="R46" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O46" s="27" t="s">
+      <c r="U46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="25" t="s">
+      <c r="V46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="14" t="s">
+      <c r="W46" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>76</v>
       </c>
@@ -4068,38 +4743,51 @@
       <c r="G47" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" s="71"/>
+      <c r="N47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="68">
+      <c r="O47" s="67">
         <v>5</v>
       </c>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60" t="s">
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25" t="s">
+      <c r="R47" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="24" t="s">
+      <c r="U47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="V47" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="14" t="s">
+      <c r="W47" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>77</v>
       </c>
@@ -4113,38 +4801,51 @@
       <c r="G48" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="68">
+      <c r="O48" s="67">
         <v>11</v>
       </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60" t="s">
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25" t="s">
+      <c r="R48" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="27" t="s">
+      <c r="U48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P48" s="25" t="s">
+      <c r="V48" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="14" t="s">
+      <c r="W48" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>78</v>
       </c>
@@ -4158,38 +4859,51 @@
       <c r="G49" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="68">
+      <c r="O49" s="67">
         <v>11</v>
       </c>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60" t="s">
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25" t="s">
+      <c r="R49" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O49" s="27" t="s">
+      <c r="U49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P49" s="25" t="s">
+      <c r="V49" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="14" t="s">
+      <c r="W49" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>79</v>
       </c>
@@ -4203,38 +4917,51 @@
       <c r="G50" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L50" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" s="71"/>
+      <c r="N50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="68">
+      <c r="O50" s="67">
         <v>5</v>
       </c>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61" t="s">
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30" t="s">
+      <c r="R50" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O50" s="29" t="s">
+      <c r="U50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="P50" s="29" t="s">
+      <c r="V50" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="14" t="s">
+      <c r="W50" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>80</v>
       </c>
@@ -4248,38 +4975,51 @@
       <c r="G51" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="68">
+      <c r="O51" s="67">
         <v>11</v>
       </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61" t="s">
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="L51" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30" t="s">
+      <c r="R51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O51" s="32" t="s">
+      <c r="U51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P51" s="30" t="s">
+      <c r="V51" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="14" t="s">
+      <c r="W51" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>81</v>
       </c>
@@ -4297,38 +5037,51 @@
       <c r="G52" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="38" t="s">
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="L52" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" s="72"/>
+      <c r="N52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="67">
+      <c r="O52" s="68">
         <v>6</v>
       </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62" t="s">
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39" t="s">
+      <c r="R52" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="38" t="s">
+      <c r="U52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="P52" s="39" t="s">
+      <c r="V52" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="33" t="s">
+      <c r="W52" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>83</v>
       </c>
@@ -4342,38 +5095,51 @@
       <c r="G53" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="42" t="s">
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="N53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="67">
+      <c r="O53" s="68">
         <v>12</v>
       </c>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62" t="s">
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39" t="s">
+      <c r="R53" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O53" s="42" t="s">
+      <c r="U53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="P53" s="43" t="s">
+      <c r="V53" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="33" t="s">
+      <c r="W53" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>85</v>
       </c>
@@ -4387,38 +5153,51 @@
       <c r="G54" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="45" t="s">
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L54" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" s="73"/>
+      <c r="N54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I54" s="67">
+      <c r="O54" s="68">
         <v>6</v>
       </c>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63" t="s">
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46" t="s">
+      <c r="R54" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O54" s="45" t="s">
+      <c r="U54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P54" s="46" t="s">
+      <c r="V54" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="33" t="s">
+      <c r="W54" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>86</v>
       </c>
@@ -4432,38 +5211,51 @@
       <c r="G55" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="45" t="s">
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L55" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M55" s="73"/>
+      <c r="N55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="67">
+      <c r="O55" s="68">
         <v>6</v>
       </c>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63" t="s">
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L55" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46" t="s">
+      <c r="R55" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O55" s="45" t="s">
+      <c r="U55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P55" s="46" t="s">
+      <c r="V55" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="33" t="s">
+      <c r="W55" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>87</v>
       </c>
@@ -4477,38 +5269,51 @@
       <c r="G56" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="67">
+      <c r="O56" s="68">
         <v>12</v>
       </c>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63" t="s">
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L56" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46" t="s">
+      <c r="R56" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O56" s="48" t="s">
+      <c r="U56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P56" s="49" t="s">
+      <c r="V56" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="33" t="s">
+      <c r="W56" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="41"/>
+      <c r="AB56" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
         <v>88</v>
       </c>
@@ -4522,38 +5327,51 @@
       <c r="G57" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="45" t="s">
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L57" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M57" s="73"/>
+      <c r="N57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I57" s="68">
+      <c r="O57" s="68">
         <v>6</v>
       </c>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63" t="s">
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L57" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46" t="s">
+      <c r="R57" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="45" t="s">
+      <c r="U57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="46" t="s">
+      <c r="V57" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="33" t="s">
+      <c r="W57" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="47"/>
+      <c r="AA57" s="41"/>
+      <c r="AB57" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>89</v>
       </c>
@@ -4567,38 +5385,51 @@
       <c r="G58" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I58" s="68">
+      <c r="O58" s="68">
         <v>12</v>
       </c>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63" t="s">
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L58" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46" t="s">
+      <c r="R58" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O58" s="48" t="s">
+      <c r="U58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="49" t="s">
+      <c r="V58" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="33" t="s">
+      <c r="W58" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="41"/>
+      <c r="AB58" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>90</v>
       </c>
@@ -4612,38 +5443,51 @@
       <c r="G59" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="48" t="s">
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I59" s="68">
+      <c r="O59" s="68">
         <v>12</v>
       </c>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63" t="s">
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L59" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46" t="s">
+      <c r="R59" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="48" t="s">
+      <c r="U59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P59" s="49" t="s">
+      <c r="V59" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="33" t="s">
+      <c r="W59" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="41"/>
+      <c r="AB59" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>91</v>
       </c>
@@ -4657,38 +5501,51 @@
       <c r="G60" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M60" s="73"/>
+      <c r="N60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I60" s="68">
+      <c r="O60" s="68">
         <v>6</v>
       </c>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63" t="s">
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L60" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46" t="s">
+      <c r="R60" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O60" s="45" t="s">
+      <c r="U60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P60" s="46" t="s">
+      <c r="V60" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="33" t="s">
+      <c r="W60" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>92</v>
       </c>
@@ -4702,34 +5559,47 @@
       <c r="G61" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H61" s="48" t="s">
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I61" s="68">
+      <c r="O61" s="68">
         <v>12</v>
       </c>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63" t="s">
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L61" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46" t="s">
+      <c r="R61" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O61" s="48" t="s">
+      <c r="U61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P61" s="49" t="s">
+      <c r="V61" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="33" t="s">
+      <c r="W61" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="41"/>
+      <c r="AB61" s="33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/inst/extdata/expt_smry_cptac_gl.xlsx
+++ b/inst/extdata/expt_smry_cptac_gl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ_dev\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$AB$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$AH$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="132">
   <si>
     <t>Description</t>
   </si>
@@ -748,6 +748,24 @@
   </si>
   <si>
     <t>Select_sub</t>
+  </si>
+  <si>
+    <t>BI_1</t>
+  </si>
+  <si>
+    <t>JHU_1</t>
+  </si>
+  <si>
+    <t>PNNL_1</t>
+  </si>
+  <si>
+    <t>BI_2</t>
+  </si>
+  <si>
+    <t>JHU_2</t>
+  </si>
+  <si>
+    <t>PNNL_2</t>
   </si>
 </sst>
 </file>
@@ -1975,12 +1993,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,24 +2010,24 @@
     <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.140625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1" customWidth="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" customWidth="1"/>
+    <col min="22" max="23" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.42578125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="9.140625" style="8" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" style="1" customWidth="1"/>
+    <col min="34" max="34" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -2044,58 +2062,76 @@
         <v>121</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="U1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="AD1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="AE1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="AF1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AG1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="52" t="s">
+      <c r="AH1" s="52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -2120,44 +2156,52 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
       <c r="L2" s="70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M2" s="70"/>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="70"/>
+      <c r="T2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="67">
+      <c r="U2" s="67">
         <v>1</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="X2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="14" t="s">
+      <c r="AC2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -2177,45 +2221,53 @@
       </c>
       <c r="J3" s="70"/>
       <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="L3" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="67">
+      <c r="U3" s="67">
         <v>7</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="V3" s="19"/>
+      <c r="W3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20" t="s">
+      <c r="X3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="AA3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="AB3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="14" t="s">
+      <c r="AC3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2237,45 +2289,53 @@
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="70"/>
-      <c r="L4" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="24" t="s">
+      <c r="L4" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="71"/>
+      <c r="T4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="67">
+      <c r="U4" s="67">
         <v>1</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="V4" s="24"/>
+      <c r="W4" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25" t="s">
+      <c r="X4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="AA4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="AB4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="14" t="s">
+      <c r="AC4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2295,45 +2355,53 @@
       </c>
       <c r="J5" s="70"/>
       <c r="K5" s="70"/>
-      <c r="L5" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="24" t="s">
+      <c r="L5" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="71"/>
+      <c r="T5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="67">
+      <c r="U5" s="67">
         <v>1</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24" t="s">
+      <c r="V5" s="24"/>
+      <c r="W5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25" t="s">
+      <c r="X5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="AA5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="AB5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="14" t="s">
+      <c r="AC5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
@@ -2353,45 +2421,53 @@
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="27" t="s">
+      <c r="L6" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="67">
+      <c r="U6" s="67">
         <v>7</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24" t="s">
+      <c r="V6" s="24"/>
+      <c r="W6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25" t="s">
+      <c r="X6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="AA6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="AB6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="14" t="s">
+      <c r="AC6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -2411,45 +2487,53 @@
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="70"/>
-      <c r="L7" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="24" t="s">
+      <c r="L7" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="71"/>
+      <c r="T7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="67">
+      <c r="U7" s="67">
         <v>1</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24" t="s">
+      <c r="V7" s="24"/>
+      <c r="W7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25" t="s">
+      <c r="X7" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="AA7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="AB7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="14" t="s">
+      <c r="AC7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2469,45 +2553,53 @@
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="27" t="s">
+      <c r="L8" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="67">
+      <c r="U8" s="67">
         <v>7</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24" t="s">
+      <c r="V8" s="24"/>
+      <c r="W8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R8" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25" t="s">
+      <c r="X8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="AA8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="25" t="s">
+      <c r="AB8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="14" t="s">
+      <c r="AC8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2527,45 +2619,53 @@
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" s="27" t="s">
+      <c r="L9" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="67">
+      <c r="U9" s="67">
         <v>7</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24" t="s">
+      <c r="V9" s="24"/>
+      <c r="W9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R9" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25" t="s">
+      <c r="X9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="AA9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="AB9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="14" t="s">
+      <c r="AC9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>45</v>
       </c>
@@ -2585,45 +2685,53 @@
       </c>
       <c r="J10" s="70"/>
       <c r="K10" s="70"/>
-      <c r="L10" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="29" t="s">
+      <c r="L10" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="71"/>
+      <c r="T10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="67">
+      <c r="U10" s="67">
         <v>1</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29" t="s">
+      <c r="V10" s="29"/>
+      <c r="W10" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30" t="s">
+      <c r="X10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="29" t="s">
+      <c r="AA10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="29" t="s">
+      <c r="AB10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="14" t="s">
+      <c r="AC10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>55</v>
       </c>
@@ -2643,45 +2751,53 @@
       </c>
       <c r="J11" s="70"/>
       <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="32" t="s">
+      <c r="L11" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="67">
+      <c r="U11" s="67">
         <v>7</v>
       </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29" t="s">
+      <c r="V11" s="29"/>
+      <c r="W11" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="R11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30" t="s">
+      <c r="X11" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="AA11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="AB11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="14" t="s">
+      <c r="AC11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>46</v>
       </c>
@@ -2705,45 +2821,53 @@
       </c>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
-      <c r="L12" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="38" t="s">
+      <c r="L12" s="72"/>
+      <c r="M12" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="72"/>
+      <c r="T12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="68">
+      <c r="U12" s="68">
         <v>2</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39" t="s">
+      <c r="V12" s="39"/>
+      <c r="W12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39" t="s">
+      <c r="X12" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="AA12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="39" t="s">
+      <c r="AB12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="W12" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="33" t="s">
+      <c r="AC12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>56</v>
       </c>
@@ -2765,43 +2889,51 @@
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="68">
+      <c r="U13" s="68">
         <v>8</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39" t="s">
+      <c r="V13" s="39"/>
+      <c r="W13" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R13" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39" t="s">
+      <c r="X13" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="42" t="s">
+      <c r="AA13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="V13" s="43" t="s">
+      <c r="AB13" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="33" t="s">
+      <c r="AC13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
@@ -2823,45 +2955,53 @@
       </c>
       <c r="J14" s="72"/>
       <c r="K14" s="72"/>
-      <c r="L14" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="45" t="s">
+      <c r="L14" s="72"/>
+      <c r="M14" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="73"/>
+      <c r="T14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="68">
+      <c r="U14" s="68">
         <v>2</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46" t="s">
+      <c r="V14" s="46"/>
+      <c r="W14" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R14" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46" t="s">
+      <c r="X14" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="45" t="s">
+      <c r="AA14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="46" t="s">
+      <c r="AB14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="W14" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="33" t="s">
+      <c r="AC14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>48</v>
       </c>
@@ -2881,45 +3021,53 @@
       </c>
       <c r="J15" s="72"/>
       <c r="K15" s="72"/>
-      <c r="L15" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="73"/>
-      <c r="N15" s="45" t="s">
+      <c r="L15" s="72"/>
+      <c r="M15" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="73"/>
+      <c r="T15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="68">
+      <c r="U15" s="68">
         <v>2</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46" t="s">
+      <c r="V15" s="46"/>
+      <c r="W15" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R15" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46" t="s">
+      <c r="X15" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="45" t="s">
+      <c r="AA15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="46" t="s">
+      <c r="AB15" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="W15" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="33" t="s">
+      <c r="AC15" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>57</v>
       </c>
@@ -2939,45 +3087,53 @@
       </c>
       <c r="J16" s="72"/>
       <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="48" t="s">
+      <c r="L16" s="72"/>
+      <c r="M16" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="68">
+      <c r="U16" s="68">
         <v>8</v>
       </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46" t="s">
+      <c r="V16" s="46"/>
+      <c r="W16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R16" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46" t="s">
+      <c r="X16" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="48" t="s">
+      <c r="AA16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V16" s="49" t="s">
+      <c r="AB16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W16" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="33" t="s">
+      <c r="AC16" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>49</v>
       </c>
@@ -2997,45 +3153,53 @@
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
-      <c r="L17" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="73"/>
-      <c r="N17" s="45" t="s">
+      <c r="L17" s="72"/>
+      <c r="M17" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="73"/>
+      <c r="T17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="68">
+      <c r="U17" s="68">
         <v>2</v>
       </c>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46" t="s">
+      <c r="V17" s="46"/>
+      <c r="W17" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R17" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46" t="s">
+      <c r="X17" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="45" t="s">
+      <c r="AA17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V17" s="46" t="s">
+      <c r="AB17" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="W17" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="33" t="s">
+      <c r="AC17" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>58</v>
       </c>
@@ -3055,45 +3219,53 @@
       </c>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" s="48" t="s">
+      <c r="L18" s="72"/>
+      <c r="M18" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="68">
+      <c r="U18" s="68">
         <v>8</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46" t="s">
+      <c r="V18" s="46"/>
+      <c r="W18" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R18" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46" t="s">
+      <c r="X18" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="48" t="s">
+      <c r="AA18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V18" s="49" t="s">
+      <c r="AB18" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W18" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="33" t="s">
+      <c r="AC18" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>59</v>
       </c>
@@ -3113,45 +3285,53 @@
       </c>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" s="48" t="s">
+      <c r="L19" s="72"/>
+      <c r="M19" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="68">
+      <c r="U19" s="68">
         <v>8</v>
       </c>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46" t="s">
+      <c r="V19" s="46"/>
+      <c r="W19" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R19" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46" t="s">
+      <c r="X19" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="48" t="s">
+      <c r="AA19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V19" s="49" t="s">
+      <c r="AB19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W19" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="33" t="s">
+      <c r="AC19" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>50</v>
       </c>
@@ -3171,45 +3351,53 @@
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
-      <c r="L20" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="73"/>
-      <c r="N20" s="45" t="s">
+      <c r="L20" s="72"/>
+      <c r="M20" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="73"/>
+      <c r="T20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="68">
+      <c r="U20" s="68">
         <v>2</v>
       </c>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46" t="s">
+      <c r="V20" s="46"/>
+      <c r="W20" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R20" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46" t="s">
+      <c r="X20" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="45" t="s">
+      <c r="AA20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V20" s="46" t="s">
+      <c r="AB20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="W20" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="33" t="s">
+      <c r="AC20" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>60</v>
       </c>
@@ -3229,45 +3417,53 @@
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N21" s="48" t="s">
+      <c r="L21" s="72"/>
+      <c r="M21" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="68">
+      <c r="U21" s="68">
         <v>8</v>
       </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46" t="s">
+      <c r="V21" s="46"/>
+      <c r="W21" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R21" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46" t="s">
+      <c r="X21" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="48" t="s">
+      <c r="AA21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V21" s="49" t="s">
+      <c r="AB21" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W21" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="33" t="s">
+      <c r="AC21" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -3291,45 +3487,53 @@
         <v>120</v>
       </c>
       <c r="K22" s="70"/>
-      <c r="L22" s="70" t="s">
-        <v>122</v>
-      </c>
+      <c r="L22" s="70"/>
       <c r="M22" s="70"/>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" s="70"/>
+      <c r="T22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O22" s="67">
+      <c r="U22" s="67">
         <v>3</v>
       </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56" t="s">
+      <c r="V22" s="56"/>
+      <c r="W22" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20" t="s">
+      <c r="X22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U22" s="19" t="s">
+      <c r="AA22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="V22" s="19" t="s">
+      <c r="AB22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="W22" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="14" t="s">
+      <c r="AC22" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
@@ -3350,44 +3554,52 @@
       </c>
       <c r="K23" s="70"/>
       <c r="L23" s="70"/>
-      <c r="M23" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="70"/>
+      <c r="N23" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="67">
+      <c r="U23" s="67">
         <v>9</v>
       </c>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56" t="s">
+      <c r="V23" s="56"/>
+      <c r="W23" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="R23" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20" t="s">
+      <c r="X23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U23" s="23" t="s">
+      <c r="AA23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="V23" s="20" t="s">
+      <c r="AB23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="W23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="14" t="s">
+      <c r="AC23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
@@ -3407,45 +3619,53 @@
         <v>120</v>
       </c>
       <c r="K24" s="70"/>
-      <c r="L24" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="71"/>
-      <c r="N24" s="24" t="s">
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="71"/>
+      <c r="T24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="O24" s="67">
+      <c r="U24" s="67">
         <v>3</v>
       </c>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57" t="s">
+      <c r="V24" s="57"/>
+      <c r="W24" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R24" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25" t="s">
+      <c r="X24" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U24" s="24" t="s">
+      <c r="AA24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="V24" s="24" t="s">
+      <c r="AB24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="W24" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="14" t="s">
+      <c r="AC24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
@@ -3465,45 +3685,53 @@
         <v>120</v>
       </c>
       <c r="K25" s="70"/>
-      <c r="L25" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="71"/>
-      <c r="N25" s="24" t="s">
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="71"/>
+      <c r="T25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="O25" s="67">
+      <c r="U25" s="67">
         <v>3</v>
       </c>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57" t="s">
+      <c r="V25" s="57"/>
+      <c r="W25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R25" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25" t="s">
+      <c r="X25" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="24" t="s">
+      <c r="AA25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="V25" s="24" t="s">
+      <c r="AB25" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="W25" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="14" t="s">
+      <c r="AC25" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>101</v>
       </c>
@@ -3523,45 +3751,53 @@
         <v>120</v>
       </c>
       <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N26" s="27" t="s">
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="67">
+      <c r="U26" s="67">
         <v>9</v>
       </c>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57" t="s">
+      <c r="V26" s="57"/>
+      <c r="W26" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25" t="s">
+      <c r="X26" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="27" t="s">
+      <c r="AA26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="V26" s="25" t="s">
+      <c r="AB26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="W26" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="14" t="s">
+      <c r="AC26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
@@ -3581,45 +3817,53 @@
         <v>120</v>
       </c>
       <c r="K27" s="70"/>
-      <c r="L27" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="24" t="s">
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="71"/>
+      <c r="T27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="O27" s="67">
+      <c r="U27" s="67">
         <v>3</v>
       </c>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57" t="s">
+      <c r="V27" s="57"/>
+      <c r="W27" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R27" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25" t="s">
+      <c r="X27" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U27" s="24" t="s">
+      <c r="AA27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="V27" s="24" t="s">
+      <c r="AB27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="W27" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="14" t="s">
+      <c r="AC27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>103</v>
       </c>
@@ -3639,45 +3883,53 @@
         <v>120</v>
       </c>
       <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N28" s="27" t="s">
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="67">
+      <c r="U28" s="67">
         <v>9</v>
       </c>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57" t="s">
+      <c r="V28" s="57"/>
+      <c r="W28" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25" t="s">
+      <c r="X28" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U28" s="27" t="s">
+      <c r="AA28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="V28" s="25" t="s">
+      <c r="AB28" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="W28" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="14" t="s">
+      <c r="AC28" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>104</v>
       </c>
@@ -3697,45 +3949,53 @@
         <v>120</v>
       </c>
       <c r="K29" s="70"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N29" s="27" t="s">
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O29" s="67">
+      <c r="U29" s="67">
         <v>9</v>
       </c>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57" t="s">
+      <c r="V29" s="57"/>
+      <c r="W29" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R29" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25" t="s">
+      <c r="X29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="27" t="s">
+      <c r="AA29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="V29" s="25" t="s">
+      <c r="AB29" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="W29" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="14" t="s">
+      <c r="AC29" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>105</v>
       </c>
@@ -3755,45 +4015,53 @@
         <v>120</v>
       </c>
       <c r="K30" s="70"/>
-      <c r="L30" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="71"/>
-      <c r="N30" s="29" t="s">
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" s="71"/>
+      <c r="T30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="O30" s="67">
+      <c r="U30" s="67">
         <v>3</v>
       </c>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58" t="s">
+      <c r="V30" s="58"/>
+      <c r="W30" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="R30" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30" t="s">
+      <c r="X30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U30" s="29" t="s">
+      <c r="AA30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="V30" s="29" t="s">
+      <c r="AB30" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="W30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="14" t="s">
+      <c r="AC30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>106</v>
       </c>
@@ -3813,45 +4081,53 @@
         <v>120</v>
       </c>
       <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N31" s="32" t="s">
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="O31" s="67">
+      <c r="U31" s="67">
         <v>9</v>
       </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58" t="s">
+      <c r="V31" s="58"/>
+      <c r="W31" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="R31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30" t="s">
+      <c r="X31" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U31" s="32" t="s">
+      <c r="AA31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="V31" s="30" t="s">
+      <c r="AB31" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="W31" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="14" t="s">
+      <c r="AC31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>107</v>
       </c>
@@ -3875,45 +4151,53 @@
         <v>120</v>
       </c>
       <c r="K32" s="72"/>
-      <c r="L32" s="72" t="s">
-        <v>122</v>
-      </c>
+      <c r="L32" s="72"/>
       <c r="M32" s="72"/>
-      <c r="N32" s="38" t="s">
+      <c r="N32" s="72"/>
+      <c r="O32" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="72"/>
+      <c r="T32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="O32" s="68">
+      <c r="U32" s="68">
         <v>4</v>
       </c>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38" t="s">
+      <c r="V32" s="38"/>
+      <c r="W32" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="R32" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39" t="s">
+      <c r="X32" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U32" s="38" t="s">
+      <c r="AA32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="V32" s="39" t="s">
+      <c r="AB32" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="W32" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="33" t="s">
+      <c r="AC32" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>109</v>
       </c>
@@ -3934,44 +4218,52 @@
       </c>
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
-      <c r="M33" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="N33" s="42" t="s">
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="T33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="O33" s="68">
+      <c r="U33" s="68">
         <v>10</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38" t="s">
+      <c r="V33" s="38"/>
+      <c r="W33" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="R33" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39" t="s">
+      <c r="X33" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U33" s="42" t="s">
+      <c r="AA33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="V33" s="43" t="s">
+      <c r="AB33" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="W33" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="33" t="s">
+      <c r="AC33" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
@@ -3991,45 +4283,53 @@
         <v>120</v>
       </c>
       <c r="K34" s="73"/>
-      <c r="L34" s="73" t="s">
-        <v>122</v>
-      </c>
+      <c r="L34" s="73"/>
       <c r="M34" s="73"/>
-      <c r="N34" s="45" t="s">
+      <c r="N34" s="73"/>
+      <c r="O34" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" s="73"/>
+      <c r="T34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="O34" s="68">
+      <c r="U34" s="68">
         <v>4</v>
       </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45" t="s">
+      <c r="V34" s="45"/>
+      <c r="W34" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R34" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46" t="s">
+      <c r="X34" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U34" s="45" t="s">
+      <c r="AA34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V34" s="46" t="s">
+      <c r="AB34" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="W34" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="33" t="s">
+      <c r="AC34" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
@@ -4049,45 +4349,53 @@
         <v>120</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="73" t="s">
-        <v>122</v>
-      </c>
+      <c r="L35" s="73"/>
       <c r="M35" s="73"/>
-      <c r="N35" s="45" t="s">
+      <c r="N35" s="73"/>
+      <c r="O35" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S35" s="73"/>
+      <c r="T35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="O35" s="68">
+      <c r="U35" s="68">
         <v>4</v>
       </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45" t="s">
+      <c r="V35" s="45"/>
+      <c r="W35" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R35" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46" t="s">
+      <c r="X35" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U35" s="45" t="s">
+      <c r="AA35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="AB35" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="W35" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="33" t="s">
+      <c r="AC35" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>113</v>
       </c>
@@ -4108,44 +4416,52 @@
       </c>
       <c r="K36" s="73"/>
       <c r="L36" s="73"/>
-      <c r="M36" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N36" s="48" t="s">
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O36" s="68">
+      <c r="U36" s="68">
         <v>10</v>
       </c>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45" t="s">
+      <c r="V36" s="45"/>
+      <c r="W36" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46" t="s">
+      <c r="X36" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U36" s="48" t="s">
+      <c r="AA36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="V36" s="49" t="s">
+      <c r="AB36" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="W36" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="33" t="s">
+      <c r="AC36" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
@@ -4165,45 +4481,53 @@
         <v>120</v>
       </c>
       <c r="K37" s="73"/>
-      <c r="L37" s="73" t="s">
-        <v>122</v>
-      </c>
+      <c r="L37" s="73"/>
       <c r="M37" s="73"/>
-      <c r="N37" s="45" t="s">
+      <c r="N37" s="73"/>
+      <c r="O37" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" s="73"/>
+      <c r="T37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="O37" s="68">
+      <c r="U37" s="68">
         <v>4</v>
       </c>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45" t="s">
+      <c r="V37" s="45"/>
+      <c r="W37" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R37" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46" t="s">
+      <c r="X37" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U37" s="45" t="s">
+      <c r="AA37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V37" s="46" t="s">
+      <c r="AB37" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="W37" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="33" t="s">
+      <c r="AC37" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
@@ -4224,44 +4548,52 @@
       </c>
       <c r="K38" s="73"/>
       <c r="L38" s="73"/>
-      <c r="M38" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N38" s="48" t="s">
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O38" s="68">
+      <c r="U38" s="68">
         <v>10</v>
       </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45" t="s">
+      <c r="V38" s="45"/>
+      <c r="W38" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R38" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46" t="s">
+      <c r="X38" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U38" s="48" t="s">
+      <c r="AA38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="V38" s="49" t="s">
+      <c r="AB38" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="W38" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="33" t="s">
+      <c r="AC38" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
@@ -4282,44 +4614,52 @@
       </c>
       <c r="K39" s="73"/>
       <c r="L39" s="73"/>
-      <c r="M39" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N39" s="48" t="s">
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O39" s="68">
+      <c r="U39" s="68">
         <v>10</v>
       </c>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45" t="s">
+      <c r="V39" s="45"/>
+      <c r="W39" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R39" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46" t="s">
+      <c r="X39" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U39" s="48" t="s">
+      <c r="AA39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="V39" s="49" t="s">
+      <c r="AB39" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="W39" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="33" t="s">
+      <c r="AC39" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
@@ -4339,45 +4679,53 @@
         <v>120</v>
       </c>
       <c r="K40" s="73"/>
-      <c r="L40" s="73" t="s">
-        <v>122</v>
-      </c>
+      <c r="L40" s="73"/>
       <c r="M40" s="73"/>
-      <c r="N40" s="45" t="s">
+      <c r="N40" s="73"/>
+      <c r="O40" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="73"/>
+      <c r="T40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="68">
+      <c r="U40" s="68">
         <v>4</v>
       </c>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45" t="s">
+      <c r="V40" s="45"/>
+      <c r="W40" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R40" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46" t="s">
+      <c r="X40" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U40" s="45" t="s">
+      <c r="AA40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V40" s="46" t="s">
+      <c r="AB40" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="W40" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="33" t="s">
+      <c r="AC40" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
@@ -4398,44 +4746,52 @@
       </c>
       <c r="K41" s="73"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N41" s="48" t="s">
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O41" s="68">
+      <c r="U41" s="68">
         <v>10</v>
       </c>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45" t="s">
+      <c r="V41" s="45"/>
+      <c r="W41" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R41" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46" t="s">
+      <c r="X41" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U41" s="48" t="s">
+      <c r="AA41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="V41" s="49" t="s">
+      <c r="AB41" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="W41" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="33" t="s">
+      <c r="AC41" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>67</v>
       </c>
@@ -4459,45 +4815,53 @@
       <c r="K42" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L42" s="70" t="s">
-        <v>122</v>
-      </c>
+      <c r="L42" s="70"/>
       <c r="M42" s="70"/>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="S42" s="70"/>
+      <c r="T42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="67">
+      <c r="U42" s="67">
         <v>5</v>
       </c>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59" t="s">
+      <c r="V42" s="59"/>
+      <c r="W42" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="R42" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20" t="s">
+      <c r="X42" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U42" s="19" t="s">
+      <c r="AA42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V42" s="19" t="s">
+      <c r="AB42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="W42" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="14" t="s">
+      <c r="AC42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>70</v>
       </c>
@@ -4518,44 +4882,52 @@
         <v>121</v>
       </c>
       <c r="L43" s="70"/>
-      <c r="M43" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="N43" s="23" t="s">
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="T43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="O43" s="67">
+      <c r="U43" s="67">
         <v>11</v>
       </c>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59" t="s">
+      <c r="V43" s="59"/>
+      <c r="W43" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="R43" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20" t="s">
+      <c r="X43" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U43" s="23" t="s">
+      <c r="AA43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="V43" s="20" t="s">
+      <c r="AB43" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="W43" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="14" t="s">
+      <c r="AC43" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>73</v>
       </c>
@@ -4575,45 +4947,53 @@
       <c r="K44" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L44" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M44" s="71"/>
-      <c r="N44" s="24" t="s">
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S44" s="71"/>
+      <c r="T44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O44" s="67">
+      <c r="U44" s="67">
         <v>5</v>
       </c>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60" t="s">
+      <c r="V44" s="60"/>
+      <c r="W44" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25" t="s">
+      <c r="X44" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U44" s="24" t="s">
+      <c r="AA44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="AB44" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W44" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="14" t="s">
+      <c r="AC44" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>74</v>
       </c>
@@ -4633,45 +5013,53 @@
       <c r="K45" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L45" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="71"/>
-      <c r="N45" s="24" t="s">
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S45" s="71"/>
+      <c r="T45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="67">
+      <c r="U45" s="67">
         <v>5</v>
       </c>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60" t="s">
+      <c r="V45" s="60"/>
+      <c r="W45" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R45" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25" t="s">
+      <c r="X45" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U45" s="24" t="s">
+      <c r="AA45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="V45" s="24" t="s">
+      <c r="AB45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W45" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="14" t="s">
+      <c r="AC45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>75</v>
       </c>
@@ -4691,45 +5079,53 @@
       <c r="K46" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N46" s="27" t="s">
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O46" s="67">
+      <c r="U46" s="67">
         <v>11</v>
       </c>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60" t="s">
+      <c r="V46" s="60"/>
+      <c r="W46" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R46" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25" t="s">
+      <c r="X46" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U46" s="27" t="s">
+      <c r="AA46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="V46" s="25" t="s">
+      <c r="AB46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="W46" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="14" t="s">
+      <c r="AC46" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>76</v>
       </c>
@@ -4749,45 +5145,53 @@
       <c r="K47" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M47" s="71"/>
-      <c r="N47" s="24" t="s">
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S47" s="71"/>
+      <c r="T47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O47" s="67">
+      <c r="U47" s="67">
         <v>5</v>
       </c>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60" t="s">
+      <c r="V47" s="60"/>
+      <c r="W47" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R47" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25" t="s">
+      <c r="X47" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U47" s="24" t="s">
+      <c r="AA47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="V47" s="24" t="s">
+      <c r="AB47" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="14" t="s">
+      <c r="AC47" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>77</v>
       </c>
@@ -4807,45 +5211,53 @@
       <c r="K48" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N48" s="27" t="s">
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O48" s="67">
+      <c r="U48" s="67">
         <v>11</v>
       </c>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60" t="s">
+      <c r="V48" s="60"/>
+      <c r="W48" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R48" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25" t="s">
+      <c r="X48" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U48" s="27" t="s">
+      <c r="AA48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="V48" s="25" t="s">
+      <c r="AB48" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="W48" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="14" t="s">
+      <c r="AC48" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>78</v>
       </c>
@@ -4865,45 +5277,53 @@
       <c r="K49" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N49" s="27" t="s">
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O49" s="67">
+      <c r="U49" s="67">
         <v>11</v>
       </c>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60" t="s">
+      <c r="V49" s="60"/>
+      <c r="W49" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R49" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25" t="s">
+      <c r="X49" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U49" s="27" t="s">
+      <c r="AA49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="V49" s="25" t="s">
+      <c r="AB49" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="W49" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="14" t="s">
+      <c r="AC49" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>79</v>
       </c>
@@ -4923,45 +5343,53 @@
       <c r="K50" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M50" s="71"/>
-      <c r="N50" s="29" t="s">
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S50" s="71"/>
+      <c r="T50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="67">
+      <c r="U50" s="67">
         <v>5</v>
       </c>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61" t="s">
+      <c r="V50" s="61"/>
+      <c r="W50" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="R50" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30" t="s">
+      <c r="X50" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U50" s="29" t="s">
+      <c r="AA50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="V50" s="29" t="s">
+      <c r="AB50" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="W50" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="14" t="s">
+      <c r="AC50" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="22"/>
+      <c r="AH50" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>80</v>
       </c>
@@ -4981,45 +5409,53 @@
       <c r="K51" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N51" s="32" t="s">
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="O51" s="67">
+      <c r="U51" s="67">
         <v>11</v>
       </c>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61" t="s">
+      <c r="V51" s="61"/>
+      <c r="W51" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="R51" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30" t="s">
+      <c r="X51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U51" s="32" t="s">
+      <c r="AA51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="V51" s="30" t="s">
+      <c r="AB51" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="14" t="s">
+      <c r="AC51" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>81</v>
       </c>
@@ -5043,45 +5479,53 @@
       <c r="K52" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="72" t="s">
-        <v>122</v>
-      </c>
+      <c r="L52" s="72"/>
       <c r="M52" s="72"/>
-      <c r="N52" s="38" t="s">
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="R52" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="S52" s="72"/>
+      <c r="T52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O52" s="68">
+      <c r="U52" s="68">
         <v>6</v>
       </c>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62" t="s">
+      <c r="V52" s="62"/>
+      <c r="W52" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="R52" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39" t="s">
+      <c r="X52" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U52" s="38" t="s">
+      <c r="AA52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="V52" s="39" t="s">
+      <c r="AB52" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="W52" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="33" t="s">
+      <c r="AC52" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="40"/>
+      <c r="AG52" s="41"/>
+      <c r="AH52" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>83</v>
       </c>
@@ -5102,44 +5546,52 @@
         <v>121</v>
       </c>
       <c r="L53" s="72"/>
-      <c r="M53" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="N53" s="42" t="s">
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="T53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="O53" s="68">
+      <c r="U53" s="68">
         <v>12</v>
       </c>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62" t="s">
+      <c r="V53" s="62"/>
+      <c r="W53" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="R53" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39" t="s">
+      <c r="X53" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U53" s="42" t="s">
+      <c r="AA53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="V53" s="43" t="s">
+      <c r="AB53" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="W53" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="33" t="s">
+      <c r="AC53" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="40"/>
+      <c r="AG53" s="41"/>
+      <c r="AH53" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>85</v>
       </c>
@@ -5159,45 +5611,53 @@
       <c r="K54" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="73" t="s">
-        <v>122</v>
-      </c>
+      <c r="L54" s="73"/>
       <c r="M54" s="73"/>
-      <c r="N54" s="45" t="s">
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S54" s="73"/>
+      <c r="T54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O54" s="68">
+      <c r="U54" s="68">
         <v>6</v>
       </c>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63" t="s">
+      <c r="V54" s="63"/>
+      <c r="W54" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R54" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46" t="s">
+      <c r="X54" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U54" s="45" t="s">
+      <c r="AA54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="V54" s="46" t="s">
+      <c r="AB54" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W54" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="47"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="33" t="s">
+      <c r="AC54" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="41"/>
+      <c r="AH54" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>86</v>
       </c>
@@ -5217,45 +5677,53 @@
       <c r="K55" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L55" s="73" t="s">
-        <v>122</v>
-      </c>
+      <c r="L55" s="73"/>
       <c r="M55" s="73"/>
-      <c r="N55" s="45" t="s">
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R55" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S55" s="73"/>
+      <c r="T55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O55" s="68">
+      <c r="U55" s="68">
         <v>6</v>
       </c>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63" t="s">
+      <c r="V55" s="63"/>
+      <c r="W55" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R55" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46" t="s">
+      <c r="X55" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U55" s="45" t="s">
+      <c r="AA55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="V55" s="46" t="s">
+      <c r="AB55" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W55" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="33" t="s">
+      <c r="AC55" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD55" s="44"/>
+      <c r="AE55" s="44"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="41"/>
+      <c r="AH55" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>87</v>
       </c>
@@ -5276,44 +5744,52 @@
         <v>121</v>
       </c>
       <c r="L56" s="73"/>
-      <c r="M56" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N56" s="48" t="s">
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O56" s="68">
+      <c r="U56" s="68">
         <v>12</v>
       </c>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63" t="s">
+      <c r="V56" s="63"/>
+      <c r="W56" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R56" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46" t="s">
+      <c r="X56" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="48" t="s">
+      <c r="AA56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V56" s="49" t="s">
+      <c r="AB56" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W56" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="33" t="s">
+      <c r="AC56" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD56" s="44"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="41"/>
+      <c r="AH56" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
         <v>88</v>
       </c>
@@ -5333,45 +5809,53 @@
       <c r="K57" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L57" s="73" t="s">
-        <v>122</v>
-      </c>
+      <c r="L57" s="73"/>
       <c r="M57" s="73"/>
-      <c r="N57" s="45" t="s">
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R57" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S57" s="73"/>
+      <c r="T57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O57" s="68">
+      <c r="U57" s="68">
         <v>6</v>
       </c>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63" t="s">
+      <c r="V57" s="63"/>
+      <c r="W57" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R57" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46" t="s">
+      <c r="X57" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U57" s="45" t="s">
+      <c r="AA57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="V57" s="46" t="s">
+      <c r="AB57" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W57" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="47"/>
-      <c r="AA57" s="41"/>
-      <c r="AB57" s="33" t="s">
+      <c r="AC57" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="41"/>
+      <c r="AH57" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>89</v>
       </c>
@@ -5392,44 +5876,52 @@
         <v>121</v>
       </c>
       <c r="L58" s="73"/>
-      <c r="M58" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N58" s="48" t="s">
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O58" s="68">
+      <c r="U58" s="68">
         <v>12</v>
       </c>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63" t="s">
+      <c r="V58" s="63"/>
+      <c r="W58" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R58" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46" t="s">
+      <c r="X58" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U58" s="48" t="s">
+      <c r="AA58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V58" s="49" t="s">
+      <c r="AB58" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W58" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="47"/>
-      <c r="AA58" s="41"/>
-      <c r="AB58" s="33" t="s">
+      <c r="AC58" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="41"/>
+      <c r="AH58" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>90</v>
       </c>
@@ -5450,44 +5942,52 @@
         <v>121</v>
       </c>
       <c r="L59" s="73"/>
-      <c r="M59" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N59" s="48" t="s">
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O59" s="68">
+      <c r="U59" s="68">
         <v>12</v>
       </c>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63" t="s">
+      <c r="V59" s="63"/>
+      <c r="W59" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R59" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46" t="s">
+      <c r="X59" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U59" s="48" t="s">
+      <c r="AA59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V59" s="49" t="s">
+      <c r="AB59" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W59" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="41"/>
-      <c r="AB59" s="33" t="s">
+      <c r="AC59" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="47"/>
+      <c r="AG59" s="41"/>
+      <c r="AH59" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>91</v>
       </c>
@@ -5507,45 +6007,53 @@
       <c r="K60" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L60" s="73" t="s">
-        <v>122</v>
-      </c>
+      <c r="L60" s="73"/>
       <c r="M60" s="73"/>
-      <c r="N60" s="45" t="s">
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R60" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="S60" s="73"/>
+      <c r="T60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O60" s="68">
+      <c r="U60" s="68">
         <v>6</v>
       </c>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63" t="s">
+      <c r="V60" s="63"/>
+      <c r="W60" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R60" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46" t="s">
+      <c r="X60" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U60" s="45" t="s">
+      <c r="AA60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="V60" s="46" t="s">
+      <c r="AB60" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W60" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="47"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="33" t="s">
+      <c r="AC60" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="47"/>
+      <c r="AG60" s="41"/>
+      <c r="AH60" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>92</v>
       </c>
@@ -5566,40 +6074,48 @@
         <v>121</v>
       </c>
       <c r="L61" s="73"/>
-      <c r="M61" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N61" s="48" t="s">
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="T61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O61" s="68">
+      <c r="U61" s="68">
         <v>12</v>
       </c>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63" t="s">
+      <c r="V61" s="63"/>
+      <c r="W61" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R61" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46" t="s">
+      <c r="X61" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U61" s="48" t="s">
+      <c r="AA61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V61" s="49" t="s">
+      <c r="AB61" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W61" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="44"/>
-      <c r="Z61" s="47"/>
-      <c r="AA61" s="41"/>
-      <c r="AB61" s="33" t="s">
+      <c r="AC61" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD61" s="44"/>
+      <c r="AE61" s="44"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="41"/>
+      <c r="AH61" s="33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/inst/extdata/expt_smry_cptac_gl.xlsx
+++ b/inst/extdata/expt_smry_cptac_gl.xlsx
@@ -456,316 +456,316 @@
     <t>Fill</t>
   </si>
   <si>
+    <t>WHIM2 digest, tech rep1</t>
+  </si>
+  <si>
+    <t>WHIM16 digest, tech rep1</t>
+  </si>
+  <si>
+    <t>WHIM2 digest, tech rep2</t>
+  </si>
+  <si>
+    <t>WHIM2 digest, tech rep3</t>
+  </si>
+  <si>
+    <t>WHIM16 digest, tech rep2</t>
+  </si>
+  <si>
+    <t>WHIM16 digest, tech rep3</t>
+  </si>
+  <si>
+    <t>WHIM2 digest, tech rep4</t>
+  </si>
+  <si>
+    <t>WHIM16 digest, tech rep4</t>
+  </si>
+  <si>
+    <t>Term_2</t>
+  </si>
+  <si>
+    <t>131N</t>
+  </si>
+  <si>
+    <t>131C</t>
+  </si>
+  <si>
+    <t>W2.BI.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI</t>
+  </si>
+  <si>
+    <t>W16.BI</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>JHU</t>
+  </si>
+  <si>
+    <t>PNNL</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W16</t>
+  </si>
+  <si>
+    <t>Term_3</t>
+  </si>
+  <si>
+    <t>Select_sub</t>
+  </si>
+  <si>
+    <t>BI_1</t>
+  </si>
+  <si>
+    <t>JHU_1</t>
+  </si>
+  <si>
+    <t>PNNL_1</t>
+  </si>
+  <si>
+    <t>BI_2</t>
+  </si>
+  <si>
+    <t>JHU_2</t>
+  </si>
+  <si>
+    <t>PNNL_2</t>
+  </si>
+  <si>
     <t>TMT1</t>
   </si>
   <si>
-    <t>WHIM2 digest, tech rep1</t>
-  </si>
-  <si>
-    <t>WHIM16 digest, tech rep1</t>
-  </si>
-  <si>
-    <t>WHIM2 digest, tech rep2</t>
-  </si>
-  <si>
-    <t>WHIM2 digest, tech rep3</t>
-  </si>
-  <si>
-    <t>WHIM16 digest, tech rep2</t>
-  </si>
-  <si>
-    <t>WHIM16 digest, tech rep3</t>
-  </si>
-  <si>
-    <t>WHIM2 digest, tech rep4</t>
-  </si>
-  <si>
-    <t>WHIM16 digest, tech rep4</t>
-  </si>
-  <si>
     <t>TMT2</t>
-  </si>
-  <si>
-    <t>Term_2</t>
-  </si>
-  <si>
-    <t>131N</t>
-  </si>
-  <si>
-    <t>131C</t>
-  </si>
-  <si>
-    <t>W2.BI.TR1.TMT1</t>
-  </si>
-  <si>
-    <t>W2.BI.TR2.TMT1</t>
-  </si>
-  <si>
-    <t>W2.BI.TR3.TMT1</t>
-  </si>
-  <si>
-    <t>W2.BI.TR4.TMT1</t>
-  </si>
-  <si>
-    <t>W2.BI.TR5.TMT1</t>
-  </si>
-  <si>
-    <t>W2.BI.TR1.TMT2</t>
-  </si>
-  <si>
-    <t>W2.BI.TR2.TMT2</t>
-  </si>
-  <si>
-    <t>W2.BI.TR3.TMT2</t>
-  </si>
-  <si>
-    <t>W2.BI.TR4.TMT2</t>
-  </si>
-  <si>
-    <t>W2.BI.TR5.TMT2</t>
-  </si>
-  <si>
-    <t>W16.BI.TR1.TMT1</t>
-  </si>
-  <si>
-    <t>W16.BI.TR2.TMT1</t>
-  </si>
-  <si>
-    <t>W16.BI.TR3.TMT1</t>
-  </si>
-  <si>
-    <t>W16.BI.TR4.TMT1</t>
-  </si>
-  <si>
-    <t>W16.BI.TR5.TMT1</t>
-  </si>
-  <si>
-    <t>W16.BI.TR1.TMT2</t>
-  </si>
-  <si>
-    <t>W16.BI.TR2.TMT2</t>
-  </si>
-  <si>
-    <t>W16.BI.TR3.TMT2</t>
-  </si>
-  <si>
-    <t>W16.BI.TR4.TMT2</t>
-  </si>
-  <si>
-    <t>W16.BI.TR5.TMT2</t>
-  </si>
-  <si>
-    <t>W16.BI.TMT1</t>
-  </si>
-  <si>
-    <t>W16.BI.TMT2</t>
-  </si>
-  <si>
-    <t>W2.BI.TMT1</t>
-  </si>
-  <si>
-    <t>W2.BI.TMT2</t>
-  </si>
-  <si>
-    <t>W2.BI</t>
-  </si>
-  <si>
-    <t>W16.BI</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR1.TMT1</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TMT1</t>
-  </si>
-  <si>
-    <t>W2.PNNL</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR1.TMT1</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TMT1</t>
-  </si>
-  <si>
-    <t>W16.PNNL</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR2.TMT1</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR3.TMT1</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR2.TMT1</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR4.TMT1</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR3.TMT1</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR4.TMT1</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR5.TMT1</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR5.TMT1</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR1.TMT2</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TMT2</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR1.TMT2</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TMT2</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR2.TMT2</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR3.TMT2</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR2.TMT2</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR4.TMT2</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR3.TMT2</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR4.TMT2</t>
-  </si>
-  <si>
-    <t>W2.PNNL.TR5.TMT2</t>
-  </si>
-  <si>
-    <t>W16.PNNL.TR5.TMT2</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR1.TMT1</t>
-  </si>
-  <si>
-    <t>W2.JHU.TMT1</t>
-  </si>
-  <si>
-    <t>W2.JHU</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR1.TMT1</t>
-  </si>
-  <si>
-    <t>W16.JHU.TMT1</t>
-  </si>
-  <si>
-    <t>W16.JHU</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR2.TMT1</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR3.TMT1</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR2.TMT1</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR4.TMT1</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR3.TMT1</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR4.TMT1</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR5.TMT1</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR5.TMT1</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR1.TMT2</t>
-  </si>
-  <si>
-    <t>W2.JHU.TMT2</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR1.TMT2</t>
-  </si>
-  <si>
-    <t>W16.JHU.TMT2</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR2.TMT2</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR3.TMT2</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR2.TMT2</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR4.TMT2</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR3.TMT2</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR4.TMT2</t>
-  </si>
-  <si>
-    <t>W2.JHU.TR5.TMT2</t>
-  </si>
-  <si>
-    <t>W16.JHU.TR5.TMT2</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>JHU</t>
-  </si>
-  <si>
-    <t>PNNL</t>
-  </si>
-  <si>
-    <t>W2</t>
-  </si>
-  <si>
-    <t>W16</t>
-  </si>
-  <si>
-    <t>Term_3</t>
-  </si>
-  <si>
-    <t>Select_sub</t>
-  </si>
-  <si>
-    <t>BI_1</t>
-  </si>
-  <si>
-    <t>JHU_1</t>
-  </si>
-  <si>
-    <t>PNNL_1</t>
-  </si>
-  <si>
-    <t>BI_2</t>
-  </si>
-  <si>
-    <t>JHU_2</t>
-  </si>
-  <si>
-    <t>PNNL_2</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1998,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,40 +2050,40 @@
         <v>19</v>
       </c>
       <c r="H1" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="69" t="s">
+      <c r="O1" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="Q1" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="69" t="s">
-        <v>131</v>
-      </c>
       <c r="R1" s="69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S1" s="69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T1" s="53" t="s">
         <v>17</v>
@@ -2110,10 +2110,10 @@
         <v>25</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="54" t="s">
         <v>18</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="14">
         <v>126</v>
@@ -2147,16 +2147,16 @@
       <c r="E2" s="16"/>
       <c r="F2" s="18"/>
       <c r="G2" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="70"/>
       <c r="I2" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
       <c r="L2" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -2164,46 +2164,46 @@
       <c r="P2" s="70"/>
       <c r="Q2" s="70"/>
       <c r="R2" s="70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S2" s="70"/>
       <c r="T2" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U2" s="67">
         <v>1</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y2" s="20"/>
       <c r="Z2" s="20" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="AC2" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
       <c r="AF2" s="21"/>
       <c r="AG2" s="22"/>
       <c r="AH2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>9</v>
@@ -2213,16 +2213,16 @@
       <c r="E3" s="16"/>
       <c r="F3" s="18"/>
       <c r="G3" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="70"/>
       <c r="I3" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3" s="70"/>
       <c r="K3" s="70"/>
       <c r="L3" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M3" s="70"/>
       <c r="N3" s="70"/>
@@ -2231,45 +2231,45 @@
       <c r="Q3" s="70"/>
       <c r="R3" s="70"/>
       <c r="S3" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U3" s="67">
         <v>7</v>
       </c>
       <c r="V3" s="19"/>
       <c r="W3" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X3" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y3" s="20"/>
       <c r="Z3" s="20" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA3" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD3" s="17"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="21"/>
       <c r="AG3" s="22"/>
       <c r="AH3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>10</v>
@@ -2279,18 +2279,18 @@
       <c r="E4" s="16"/>
       <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="70"/>
       <c r="L4" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M4" s="70"/>
       <c r="N4" s="70"/>
@@ -2298,46 +2298,46 @@
       <c r="P4" s="70"/>
       <c r="Q4" s="70"/>
       <c r="R4" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S4" s="71"/>
       <c r="T4" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U4" s="67">
         <v>1</v>
       </c>
       <c r="V4" s="24"/>
       <c r="W4" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB4" s="24" t="s">
-        <v>65</v>
-      </c>
       <c r="AC4" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
       <c r="AF4" s="26"/>
       <c r="AG4" s="22"/>
       <c r="AH4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>11</v>
@@ -2347,16 +2347,16 @@
       <c r="E5" s="16"/>
       <c r="F5" s="18"/>
       <c r="G5" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" s="71"/>
       <c r="I5" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J5" s="70"/>
       <c r="K5" s="70"/>
       <c r="L5" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
@@ -2364,46 +2364,46 @@
       <c r="P5" s="70"/>
       <c r="Q5" s="70"/>
       <c r="R5" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S5" s="71"/>
       <c r="T5" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U5" s="67">
         <v>1</v>
       </c>
       <c r="V5" s="24"/>
       <c r="W5" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X5" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="25"/>
       <c r="Z5" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB5" s="24" t="s">
-        <v>65</v>
-      </c>
       <c r="AC5" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
       <c r="AF5" s="26"/>
       <c r="AG5" s="22"/>
       <c r="AH5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>12</v>
@@ -2413,16 +2413,16 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
       <c r="G6" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
       <c r="L6" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M6" s="70"/>
       <c r="N6" s="70"/>
@@ -2431,45 +2431,45 @@
       <c r="Q6" s="70"/>
       <c r="R6" s="71"/>
       <c r="S6" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U6" s="67">
         <v>7</v>
       </c>
       <c r="V6" s="24"/>
       <c r="W6" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X6" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA6" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC6" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
       <c r="AF6" s="26"/>
       <c r="AG6" s="22"/>
       <c r="AH6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>13</v>
@@ -2479,16 +2479,16 @@
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
       <c r="G7" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="71"/>
       <c r="I7" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="70"/>
       <c r="L7" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
@@ -2496,46 +2496,46 @@
       <c r="P7" s="70"/>
       <c r="Q7" s="70"/>
       <c r="R7" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S7" s="71"/>
       <c r="T7" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U7" s="67">
         <v>1</v>
       </c>
       <c r="V7" s="24"/>
       <c r="W7" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X7" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="24" t="s">
-        <v>65</v>
-      </c>
       <c r="AC7" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
       <c r="AF7" s="26"/>
       <c r="AG7" s="22"/>
       <c r="AH7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>14</v>
@@ -2545,16 +2545,16 @@
       <c r="E8" s="16"/>
       <c r="F8" s="18"/>
       <c r="G8" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="71"/>
       <c r="I8" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
       <c r="L8" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -2563,45 +2563,45 @@
       <c r="Q8" s="70"/>
       <c r="R8" s="71"/>
       <c r="S8" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U8" s="67">
         <v>7</v>
       </c>
       <c r="V8" s="24"/>
       <c r="W8" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X8" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA8" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC8" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="26"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>15</v>
@@ -2611,16 +2611,16 @@
       <c r="E9" s="16"/>
       <c r="F9" s="18"/>
       <c r="G9" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
       <c r="L9" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M9" s="70"/>
       <c r="N9" s="70"/>
@@ -2629,45 +2629,45 @@
       <c r="Q9" s="70"/>
       <c r="R9" s="71"/>
       <c r="S9" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U9" s="67">
         <v>7</v>
       </c>
       <c r="V9" s="24"/>
       <c r="W9" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA9" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB9" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC9" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="26"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>16</v>
@@ -2677,16 +2677,16 @@
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
       <c r="G10" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J10" s="70"/>
       <c r="K10" s="70"/>
       <c r="L10" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M10" s="70"/>
       <c r="N10" s="70"/>
@@ -2694,46 +2694,46 @@
       <c r="P10" s="70"/>
       <c r="Q10" s="70"/>
       <c r="R10" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S10" s="71"/>
       <c r="T10" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U10" s="67">
         <v>1</v>
       </c>
       <c r="V10" s="29"/>
       <c r="W10" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X10" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y10" s="30"/>
       <c r="Z10" s="30" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AB10" s="29" t="s">
-        <v>65</v>
-      </c>
       <c r="AC10" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD10" s="28"/>
       <c r="AE10" s="28"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="14">
         <v>131</v>
@@ -2743,16 +2743,16 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
       <c r="G11" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J11" s="70"/>
       <c r="K11" s="70"/>
       <c r="L11" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M11" s="70"/>
       <c r="N11" s="70"/>
@@ -2761,45 +2761,45 @@
       <c r="Q11" s="70"/>
       <c r="R11" s="71"/>
       <c r="S11" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U11" s="67">
         <v>7</v>
       </c>
       <c r="V11" s="29"/>
       <c r="W11" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X11" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y11" s="30"/>
       <c r="Z11" s="30" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA11" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC11" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD11" s="28"/>
       <c r="AE11" s="28"/>
       <c r="AF11" s="31"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="33">
         <v>126</v>
@@ -2813,63 +2813,63 @@
       <c r="E12" s="35"/>
       <c r="F12" s="37"/>
       <c r="G12" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" s="72"/>
       <c r="I12" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
       <c r="M12" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N12" s="72"/>
       <c r="O12" s="72"/>
       <c r="P12" s="72"/>
       <c r="Q12" s="72"/>
       <c r="R12" s="72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S12" s="72"/>
       <c r="T12" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U12" s="68">
         <v>2</v>
       </c>
       <c r="V12" s="39"/>
       <c r="W12" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X12" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y12" s="39"/>
       <c r="Z12" s="39" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA12" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB12" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC12" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD12" s="36"/>
       <c r="AE12" s="36"/>
       <c r="AF12" s="40"/>
       <c r="AG12" s="41"/>
       <c r="AH12" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>9</v>
@@ -2879,17 +2879,17 @@
       <c r="E13" s="35"/>
       <c r="F13" s="37"/>
       <c r="G13" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H13" s="72"/>
       <c r="I13" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N13" s="72"/>
       <c r="O13" s="72"/>
@@ -2897,45 +2897,45 @@
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
       <c r="S13" s="72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T13" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U13" s="68">
         <v>8</v>
       </c>
       <c r="V13" s="39"/>
       <c r="W13" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X13" s="64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y13" s="39"/>
       <c r="Z13" s="39" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA13" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC13" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD13" s="36"/>
       <c r="AE13" s="36"/>
       <c r="AF13" s="40"/>
       <c r="AG13" s="41"/>
       <c r="AH13" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>10</v>
@@ -2945,65 +2945,65 @@
       <c r="E14" s="35"/>
       <c r="F14" s="37"/>
       <c r="G14" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J14" s="72"/>
       <c r="K14" s="72"/>
       <c r="L14" s="72"/>
       <c r="M14" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S14" s="73"/>
       <c r="T14" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U14" s="68">
         <v>2</v>
       </c>
       <c r="V14" s="46"/>
       <c r="W14" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X14" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y14" s="46"/>
       <c r="Z14" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA14" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB14" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC14" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD14" s="44"/>
       <c r="AE14" s="44"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="41"/>
       <c r="AH14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>11</v>
@@ -3013,63 +3013,63 @@
       <c r="E15" s="35"/>
       <c r="F15" s="37"/>
       <c r="G15" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J15" s="72"/>
       <c r="K15" s="72"/>
       <c r="L15" s="72"/>
       <c r="M15" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S15" s="73"/>
       <c r="T15" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U15" s="68">
         <v>2</v>
       </c>
       <c r="V15" s="46"/>
       <c r="W15" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X15" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y15" s="46"/>
       <c r="Z15" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA15" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB15" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC15" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD15" s="44"/>
       <c r="AE15" s="44"/>
       <c r="AF15" s="47"/>
       <c r="AG15" s="41"/>
       <c r="AH15" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>12</v>
@@ -3079,17 +3079,17 @@
       <c r="E16" s="35"/>
       <c r="F16" s="37"/>
       <c r="G16" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16" s="73"/>
       <c r="I16" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J16" s="72"/>
       <c r="K16" s="72"/>
       <c r="L16" s="72"/>
       <c r="M16" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
@@ -3097,45 +3097,45 @@
       <c r="Q16" s="72"/>
       <c r="R16" s="73"/>
       <c r="S16" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T16" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U16" s="68">
         <v>8</v>
       </c>
       <c r="V16" s="46"/>
       <c r="W16" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X16" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y16" s="46"/>
       <c r="Z16" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA16" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB16" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC16" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD16" s="44"/>
       <c r="AE16" s="44"/>
       <c r="AF16" s="47"/>
       <c r="AG16" s="41"/>
       <c r="AH16" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>13</v>
@@ -3145,63 +3145,63 @@
       <c r="E17" s="35"/>
       <c r="F17" s="37"/>
       <c r="G17" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="73"/>
       <c r="I17" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
       <c r="L17" s="72"/>
       <c r="M17" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="72"/>
       <c r="R17" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S17" s="73"/>
       <c r="T17" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U17" s="68">
         <v>2</v>
       </c>
       <c r="V17" s="46"/>
       <c r="W17" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X17" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y17" s="46"/>
       <c r="Z17" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA17" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB17" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC17" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD17" s="44"/>
       <c r="AE17" s="44"/>
       <c r="AF17" s="47"/>
       <c r="AG17" s="41"/>
       <c r="AH17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>14</v>
@@ -3211,17 +3211,17 @@
       <c r="E18" s="35"/>
       <c r="F18" s="37"/>
       <c r="G18" s="44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="73"/>
       <c r="I18" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
       <c r="M18" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N18" s="72"/>
       <c r="O18" s="72"/>
@@ -3229,45 +3229,45 @@
       <c r="Q18" s="72"/>
       <c r="R18" s="73"/>
       <c r="S18" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T18" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U18" s="68">
         <v>8</v>
       </c>
       <c r="V18" s="46"/>
       <c r="W18" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X18" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y18" s="46"/>
       <c r="Z18" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA18" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB18" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC18" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD18" s="44"/>
       <c r="AE18" s="44"/>
       <c r="AF18" s="47"/>
       <c r="AG18" s="41"/>
       <c r="AH18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>15</v>
@@ -3277,17 +3277,17 @@
       <c r="E19" s="35"/>
       <c r="F19" s="37"/>
       <c r="G19" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" s="73"/>
       <c r="I19" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
       <c r="M19" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
@@ -3295,45 +3295,45 @@
       <c r="Q19" s="72"/>
       <c r="R19" s="73"/>
       <c r="S19" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T19" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U19" s="68">
         <v>8</v>
       </c>
       <c r="V19" s="46"/>
       <c r="W19" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X19" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y19" s="46"/>
       <c r="Z19" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA19" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB19" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC19" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD19" s="44"/>
       <c r="AE19" s="44"/>
       <c r="AF19" s="47"/>
       <c r="AG19" s="41"/>
       <c r="AH19" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>16</v>
@@ -3343,63 +3343,63 @@
       <c r="E20" s="35"/>
       <c r="F20" s="37"/>
       <c r="G20" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
       <c r="M20" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N20" s="72"/>
       <c r="O20" s="72"/>
       <c r="P20" s="72"/>
       <c r="Q20" s="72"/>
       <c r="R20" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S20" s="73"/>
       <c r="T20" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U20" s="68">
         <v>2</v>
       </c>
       <c r="V20" s="46"/>
       <c r="W20" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X20" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y20" s="46"/>
       <c r="Z20" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA20" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB20" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC20" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD20" s="44"/>
       <c r="AE20" s="44"/>
       <c r="AF20" s="47"/>
       <c r="AG20" s="41"/>
       <c r="AH20" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="33">
         <v>131</v>
@@ -3409,17 +3409,17 @@
       <c r="E21" s="35"/>
       <c r="F21" s="37"/>
       <c r="G21" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="73"/>
       <c r="I21" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
       <c r="L21" s="72"/>
       <c r="M21" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
@@ -3427,45 +3427,45 @@
       <c r="Q21" s="72"/>
       <c r="R21" s="73"/>
       <c r="S21" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T21" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U21" s="68">
         <v>8</v>
       </c>
       <c r="V21" s="46"/>
       <c r="W21" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X21" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y21" s="46"/>
       <c r="Z21" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA21" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB21" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC21" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD21" s="44"/>
       <c r="AE21" s="44"/>
       <c r="AF21" s="47"/>
       <c r="AG21" s="41"/>
       <c r="AH21" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="14">
         <v>126</v>
@@ -3479,63 +3479,63 @@
       <c r="E22" s="16"/>
       <c r="F22" s="18"/>
       <c r="G22" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
       <c r="J22" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
       <c r="N22" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O22" s="70"/>
       <c r="P22" s="70"/>
       <c r="Q22" s="70"/>
       <c r="R22" s="70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S22" s="70"/>
       <c r="T22" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U22" s="67">
         <v>3</v>
       </c>
       <c r="V22" s="56"/>
       <c r="W22" s="56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA22" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB22" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC22" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
       <c r="AF22" s="21"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>9</v>
@@ -3545,63 +3545,63 @@
       <c r="E23" s="16"/>
       <c r="F23" s="18"/>
       <c r="G23" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K23" s="70"/>
       <c r="L23" s="70"/>
       <c r="M23" s="70"/>
       <c r="N23" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O23" s="70"/>
       <c r="P23" s="70"/>
       <c r="Q23" s="70"/>
       <c r="R23" s="70"/>
       <c r="S23" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T23" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U23" s="67">
         <v>9</v>
       </c>
       <c r="V23" s="56"/>
       <c r="W23" s="56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X23" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA23" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC23" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
       <c r="AF23" s="21"/>
       <c r="AG23" s="22"/>
       <c r="AH23" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>10</v>
@@ -3611,63 +3611,63 @@
       <c r="E24" s="16"/>
       <c r="F24" s="18"/>
       <c r="G24" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
       <c r="J24" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K24" s="70"/>
       <c r="L24" s="70"/>
       <c r="M24" s="70"/>
       <c r="N24" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O24" s="70"/>
       <c r="P24" s="70"/>
       <c r="Q24" s="70"/>
       <c r="R24" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S24" s="71"/>
       <c r="T24" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U24" s="67">
         <v>3</v>
       </c>
       <c r="V24" s="57"/>
       <c r="W24" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X24" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y24" s="25"/>
       <c r="Z24" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA24" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB24" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC24" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="26"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>11</v>
@@ -3677,63 +3677,63 @@
       <c r="E25" s="16"/>
       <c r="F25" s="18"/>
       <c r="G25" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
       <c r="J25" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K25" s="70"/>
       <c r="L25" s="70"/>
       <c r="M25" s="70"/>
       <c r="N25" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O25" s="70"/>
       <c r="P25" s="70"/>
       <c r="Q25" s="70"/>
       <c r="R25" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S25" s="71"/>
       <c r="T25" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U25" s="67">
         <v>3</v>
       </c>
       <c r="V25" s="57"/>
       <c r="W25" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X25" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y25" s="25"/>
       <c r="Z25" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA25" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB25" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC25" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="26"/>
       <c r="AG25" s="22"/>
       <c r="AH25" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>12</v>
@@ -3743,63 +3743,63 @@
       <c r="E26" s="16"/>
       <c r="F26" s="18"/>
       <c r="G26" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
       <c r="J26" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K26" s="70"/>
       <c r="L26" s="70"/>
       <c r="M26" s="70"/>
       <c r="N26" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="70"/>
       <c r="R26" s="71"/>
       <c r="S26" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U26" s="67">
         <v>9</v>
       </c>
       <c r="V26" s="57"/>
       <c r="W26" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X26" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y26" s="25"/>
       <c r="Z26" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA26" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB26" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC26" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="26"/>
       <c r="AG26" s="22"/>
       <c r="AH26" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>13</v>
@@ -3809,63 +3809,63 @@
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
       <c r="G27" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
       <c r="J27" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K27" s="70"/>
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
       <c r="N27" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="70"/>
       <c r="R27" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S27" s="71"/>
       <c r="T27" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U27" s="67">
         <v>3</v>
       </c>
       <c r="V27" s="57"/>
       <c r="W27" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X27" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y27" s="25"/>
       <c r="Z27" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB27" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC27" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="26"/>
       <c r="AG27" s="22"/>
       <c r="AH27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>14</v>
@@ -3875,63 +3875,63 @@
       <c r="E28" s="16"/>
       <c r="F28" s="18"/>
       <c r="G28" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
       <c r="J28" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
       <c r="N28" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O28" s="70"/>
       <c r="P28" s="70"/>
       <c r="Q28" s="70"/>
       <c r="R28" s="71"/>
       <c r="S28" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T28" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U28" s="67">
         <v>9</v>
       </c>
       <c r="V28" s="57"/>
       <c r="W28" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X28" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA28" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB28" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC28" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="22"/>
       <c r="AH28" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>15</v>
@@ -3941,63 +3941,63 @@
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
       <c r="G29" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
       <c r="J29" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="70"/>
       <c r="N29" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O29" s="70"/>
       <c r="P29" s="70"/>
       <c r="Q29" s="70"/>
       <c r="R29" s="71"/>
       <c r="S29" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U29" s="67">
         <v>9</v>
       </c>
       <c r="V29" s="57"/>
       <c r="W29" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X29" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y29" s="25"/>
       <c r="Z29" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA29" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB29" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC29" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="26"/>
       <c r="AG29" s="22"/>
       <c r="AH29" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>16</v>
@@ -4007,63 +4007,63 @@
       <c r="E30" s="16"/>
       <c r="F30" s="18"/>
       <c r="G30" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
       <c r="J30" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K30" s="70"/>
       <c r="L30" s="70"/>
       <c r="M30" s="70"/>
       <c r="N30" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O30" s="70"/>
       <c r="P30" s="70"/>
       <c r="Q30" s="70"/>
       <c r="R30" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S30" s="71"/>
       <c r="T30" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U30" s="67">
         <v>3</v>
       </c>
       <c r="V30" s="58"/>
       <c r="W30" s="58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X30" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y30" s="30"/>
       <c r="Z30" s="30" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA30" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB30" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC30" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD30" s="28"/>
       <c r="AE30" s="28"/>
       <c r="AF30" s="31"/>
       <c r="AG30" s="22"/>
       <c r="AH30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="14">
         <v>131</v>
@@ -4073,63 +4073,63 @@
       <c r="E31" s="16"/>
       <c r="F31" s="18"/>
       <c r="G31" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H31" s="71"/>
       <c r="I31" s="71"/>
       <c r="J31" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
       <c r="M31" s="70"/>
       <c r="N31" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O31" s="70"/>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="71"/>
       <c r="S31" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T31" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U31" s="67">
         <v>9</v>
       </c>
       <c r="V31" s="58"/>
       <c r="W31" s="58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X31" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y31" s="30"/>
       <c r="Z31" s="30" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA31" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB31" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC31" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD31" s="28"/>
       <c r="AE31" s="28"/>
       <c r="AF31" s="31"/>
       <c r="AG31" s="22"/>
       <c r="AH31" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="33">
         <v>126</v>
@@ -4143,63 +4143,63 @@
       <c r="E32" s="35"/>
       <c r="F32" s="37"/>
       <c r="G32" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H32" s="72"/>
       <c r="I32" s="72"/>
       <c r="J32" s="72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K32" s="72"/>
       <c r="L32" s="72"/>
       <c r="M32" s="72"/>
       <c r="N32" s="72"/>
       <c r="O32" s="72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P32" s="72"/>
       <c r="Q32" s="72"/>
       <c r="R32" s="72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S32" s="72"/>
       <c r="T32" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U32" s="68">
         <v>4</v>
       </c>
       <c r="V32" s="38"/>
       <c r="W32" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X32" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y32" s="39"/>
       <c r="Z32" s="39" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA32" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB32" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC32" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD32" s="36"/>
       <c r="AE32" s="36"/>
       <c r="AF32" s="40"/>
       <c r="AG32" s="41"/>
       <c r="AH32" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>9</v>
@@ -4209,63 +4209,63 @@
       <c r="E33" s="35"/>
       <c r="F33" s="37"/>
       <c r="G33" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H33" s="72"/>
       <c r="I33" s="72"/>
       <c r="J33" s="72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
       <c r="M33" s="72"/>
       <c r="N33" s="72"/>
       <c r="O33" s="72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P33" s="72"/>
       <c r="Q33" s="72"/>
       <c r="R33" s="72"/>
       <c r="S33" s="72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T33" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U33" s="68">
         <v>10</v>
       </c>
       <c r="V33" s="38"/>
       <c r="W33" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X33" s="64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y33" s="39"/>
       <c r="Z33" s="39" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA33" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB33" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC33" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD33" s="36"/>
       <c r="AE33" s="36"/>
       <c r="AF33" s="40"/>
       <c r="AG33" s="41"/>
       <c r="AH33" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>10</v>
@@ -4275,63 +4275,63 @@
       <c r="E34" s="35"/>
       <c r="F34" s="37"/>
       <c r="G34" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H34" s="73"/>
       <c r="I34" s="73"/>
       <c r="J34" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K34" s="73"/>
       <c r="L34" s="73"/>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
       <c r="O34" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P34" s="73"/>
       <c r="Q34" s="73"/>
       <c r="R34" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S34" s="73"/>
       <c r="T34" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U34" s="68">
         <v>4</v>
       </c>
       <c r="V34" s="45"/>
       <c r="W34" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X34" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y34" s="46"/>
       <c r="Z34" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA34" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB34" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC34" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD34" s="44"/>
       <c r="AE34" s="44"/>
       <c r="AF34" s="47"/>
       <c r="AG34" s="41"/>
       <c r="AH34" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>11</v>
@@ -4341,63 +4341,63 @@
       <c r="E35" s="35"/>
       <c r="F35" s="37"/>
       <c r="G35" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H35" s="73"/>
       <c r="I35" s="73"/>
       <c r="J35" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K35" s="73"/>
       <c r="L35" s="73"/>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
       <c r="O35" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P35" s="73"/>
       <c r="Q35" s="73"/>
       <c r="R35" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S35" s="73"/>
       <c r="T35" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U35" s="68">
         <v>4</v>
       </c>
       <c r="V35" s="45"/>
       <c r="W35" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X35" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y35" s="46"/>
       <c r="Z35" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA35" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB35" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC35" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD35" s="44"/>
       <c r="AE35" s="44"/>
       <c r="AF35" s="47"/>
       <c r="AG35" s="41"/>
       <c r="AH35" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>12</v>
@@ -4407,63 +4407,63 @@
       <c r="E36" s="35"/>
       <c r="F36" s="37"/>
       <c r="G36" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H36" s="73"/>
       <c r="I36" s="73"/>
       <c r="J36" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K36" s="73"/>
       <c r="L36" s="73"/>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
       <c r="O36" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P36" s="73"/>
       <c r="Q36" s="73"/>
       <c r="R36" s="73"/>
       <c r="S36" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T36" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U36" s="68">
         <v>10</v>
       </c>
       <c r="V36" s="45"/>
       <c r="W36" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X36" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y36" s="46"/>
       <c r="Z36" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA36" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB36" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC36" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD36" s="44"/>
       <c r="AE36" s="44"/>
       <c r="AF36" s="47"/>
       <c r="AG36" s="41"/>
       <c r="AH36" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>13</v>
@@ -4473,63 +4473,63 @@
       <c r="E37" s="35"/>
       <c r="F37" s="37"/>
       <c r="G37" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H37" s="73"/>
       <c r="I37" s="73"/>
       <c r="J37" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
       <c r="O37" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P37" s="73"/>
       <c r="Q37" s="73"/>
       <c r="R37" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S37" s="73"/>
       <c r="T37" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U37" s="68">
         <v>4</v>
       </c>
       <c r="V37" s="45"/>
       <c r="W37" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X37" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y37" s="46"/>
       <c r="Z37" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA37" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB37" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC37" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD37" s="44"/>
       <c r="AE37" s="44"/>
       <c r="AF37" s="47"/>
       <c r="AG37" s="41"/>
       <c r="AH37" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>14</v>
@@ -4539,63 +4539,63 @@
       <c r="E38" s="35"/>
       <c r="F38" s="37"/>
       <c r="G38" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H38" s="73"/>
       <c r="I38" s="73"/>
       <c r="J38" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K38" s="73"/>
       <c r="L38" s="73"/>
       <c r="M38" s="73"/>
       <c r="N38" s="73"/>
       <c r="O38" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P38" s="73"/>
       <c r="Q38" s="73"/>
       <c r="R38" s="73"/>
       <c r="S38" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T38" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U38" s="68">
         <v>10</v>
       </c>
       <c r="V38" s="45"/>
       <c r="W38" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X38" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y38" s="46"/>
       <c r="Z38" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA38" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB38" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC38" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD38" s="44"/>
       <c r="AE38" s="44"/>
       <c r="AF38" s="47"/>
       <c r="AG38" s="41"/>
       <c r="AH38" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>15</v>
@@ -4605,63 +4605,63 @@
       <c r="E39" s="35"/>
       <c r="F39" s="37"/>
       <c r="G39" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H39" s="73"/>
       <c r="I39" s="73"/>
       <c r="J39" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K39" s="73"/>
       <c r="L39" s="73"/>
       <c r="M39" s="73"/>
       <c r="N39" s="73"/>
       <c r="O39" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P39" s="73"/>
       <c r="Q39" s="73"/>
       <c r="R39" s="73"/>
       <c r="S39" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T39" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U39" s="68">
         <v>10</v>
       </c>
       <c r="V39" s="45"/>
       <c r="W39" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X39" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y39" s="46"/>
       <c r="Z39" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA39" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB39" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC39" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD39" s="44"/>
       <c r="AE39" s="44"/>
       <c r="AF39" s="47"/>
       <c r="AG39" s="41"/>
       <c r="AH39" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>16</v>
@@ -4671,63 +4671,63 @@
       <c r="E40" s="35"/>
       <c r="F40" s="37"/>
       <c r="G40" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H40" s="73"/>
       <c r="I40" s="73"/>
       <c r="J40" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K40" s="73"/>
       <c r="L40" s="73"/>
       <c r="M40" s="73"/>
       <c r="N40" s="73"/>
       <c r="O40" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P40" s="73"/>
       <c r="Q40" s="73"/>
       <c r="R40" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S40" s="73"/>
       <c r="T40" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U40" s="68">
         <v>4</v>
       </c>
       <c r="V40" s="45"/>
       <c r="W40" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X40" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y40" s="46"/>
       <c r="Z40" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA40" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB40" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC40" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD40" s="44"/>
       <c r="AE40" s="44"/>
       <c r="AF40" s="47"/>
       <c r="AG40" s="41"/>
       <c r="AH40" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41" s="33">
         <v>131</v>
@@ -4737,63 +4737,63 @@
       <c r="E41" s="35"/>
       <c r="F41" s="37"/>
       <c r="G41" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H41" s="73"/>
       <c r="I41" s="73"/>
       <c r="J41" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K41" s="73"/>
       <c r="L41" s="73"/>
       <c r="M41" s="73"/>
       <c r="N41" s="73"/>
       <c r="O41" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P41" s="73"/>
       <c r="Q41" s="73"/>
       <c r="R41" s="73"/>
       <c r="S41" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T41" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U41" s="68">
         <v>10</v>
       </c>
       <c r="V41" s="45"/>
       <c r="W41" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X41" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y41" s="46"/>
       <c r="Z41" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA41" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB41" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC41" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD41" s="44"/>
       <c r="AE41" s="44"/>
       <c r="AF41" s="47"/>
       <c r="AG41" s="41"/>
       <c r="AH41" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="14">
         <v>126</v>
@@ -4807,63 +4807,63 @@
       <c r="E42" s="16"/>
       <c r="F42" s="18"/>
       <c r="G42" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="70"/>
       <c r="J42" s="70"/>
       <c r="K42" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L42" s="70"/>
       <c r="M42" s="70"/>
       <c r="N42" s="70"/>
       <c r="O42" s="70"/>
       <c r="P42" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="70"/>
       <c r="R42" s="70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S42" s="70"/>
       <c r="T42" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U42" s="67">
         <v>5</v>
       </c>
       <c r="V42" s="59"/>
       <c r="W42" s="59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA42" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC42" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
       <c r="AF42" s="21"/>
       <c r="AG42" s="22"/>
       <c r="AH42" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>9</v>
@@ -4873,63 +4873,63 @@
       <c r="E43" s="16"/>
       <c r="F43" s="18"/>
       <c r="G43" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" s="70"/>
       <c r="I43" s="70"/>
       <c r="J43" s="70"/>
       <c r="K43" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L43" s="70"/>
       <c r="M43" s="70"/>
       <c r="N43" s="70"/>
       <c r="O43" s="70"/>
       <c r="P43" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="70"/>
       <c r="R43" s="70"/>
       <c r="S43" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T43" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U43" s="67">
         <v>11</v>
       </c>
       <c r="V43" s="59"/>
       <c r="W43" s="59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X43" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA43" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB43" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC43" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17"/>
       <c r="AF43" s="21"/>
       <c r="AG43" s="22"/>
       <c r="AH43" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>10</v>
@@ -4939,63 +4939,63 @@
       <c r="E44" s="16"/>
       <c r="F44" s="18"/>
       <c r="G44" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H44" s="71"/>
       <c r="I44" s="71"/>
       <c r="J44" s="71"/>
       <c r="K44" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L44" s="70"/>
       <c r="M44" s="70"/>
       <c r="N44" s="70"/>
       <c r="O44" s="70"/>
       <c r="P44" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q44" s="70"/>
       <c r="R44" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S44" s="71"/>
       <c r="T44" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U44" s="67">
         <v>5</v>
       </c>
       <c r="V44" s="60"/>
       <c r="W44" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X44" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y44" s="25"/>
       <c r="Z44" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA44" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB44" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC44" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
       <c r="AF44" s="26"/>
       <c r="AG44" s="22"/>
       <c r="AH44" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>11</v>
@@ -5005,63 +5005,63 @@
       <c r="E45" s="16"/>
       <c r="F45" s="18"/>
       <c r="G45" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H45" s="71"/>
       <c r="I45" s="71"/>
       <c r="J45" s="71"/>
       <c r="K45" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L45" s="70"/>
       <c r="M45" s="70"/>
       <c r="N45" s="70"/>
       <c r="O45" s="70"/>
       <c r="P45" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q45" s="70"/>
       <c r="R45" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S45" s="71"/>
       <c r="T45" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U45" s="67">
         <v>5</v>
       </c>
       <c r="V45" s="60"/>
       <c r="W45" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X45" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y45" s="25"/>
       <c r="Z45" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA45" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB45" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC45" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD45" s="14"/>
       <c r="AE45" s="14"/>
       <c r="AF45" s="26"/>
       <c r="AG45" s="22"/>
       <c r="AH45" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>12</v>
@@ -5071,63 +5071,63 @@
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
       <c r="G46" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H46" s="71"/>
       <c r="I46" s="71"/>
       <c r="J46" s="71"/>
       <c r="K46" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L46" s="70"/>
       <c r="M46" s="70"/>
       <c r="N46" s="70"/>
       <c r="O46" s="70"/>
       <c r="P46" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q46" s="70"/>
       <c r="R46" s="71"/>
       <c r="S46" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T46" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U46" s="67">
         <v>11</v>
       </c>
       <c r="V46" s="60"/>
       <c r="W46" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X46" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y46" s="25"/>
       <c r="Z46" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA46" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB46" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC46" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD46" s="14"/>
       <c r="AE46" s="14"/>
       <c r="AF46" s="26"/>
       <c r="AG46" s="22"/>
       <c r="AH46" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>13</v>
@@ -5137,63 +5137,63 @@
       <c r="E47" s="16"/>
       <c r="F47" s="18"/>
       <c r="G47" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H47" s="71"/>
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="K47" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L47" s="70"/>
       <c r="M47" s="70"/>
       <c r="N47" s="70"/>
       <c r="O47" s="70"/>
       <c r="P47" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q47" s="70"/>
       <c r="R47" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S47" s="71"/>
       <c r="T47" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U47" s="67">
         <v>5</v>
       </c>
       <c r="V47" s="60"/>
       <c r="W47" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X47" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y47" s="25"/>
       <c r="Z47" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA47" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB47" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC47" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD47" s="14"/>
       <c r="AE47" s="14"/>
       <c r="AF47" s="26"/>
       <c r="AG47" s="22"/>
       <c r="AH47" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>14</v>
@@ -5203,63 +5203,63 @@
       <c r="E48" s="16"/>
       <c r="F48" s="18"/>
       <c r="G48" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H48" s="71"/>
       <c r="I48" s="71"/>
       <c r="J48" s="71"/>
       <c r="K48" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L48" s="70"/>
       <c r="M48" s="70"/>
       <c r="N48" s="70"/>
       <c r="O48" s="70"/>
       <c r="P48" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q48" s="70"/>
       <c r="R48" s="71"/>
       <c r="S48" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T48" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U48" s="67">
         <v>11</v>
       </c>
       <c r="V48" s="60"/>
       <c r="W48" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X48" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y48" s="25"/>
       <c r="Z48" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA48" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB48" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC48" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
       <c r="AF48" s="26"/>
       <c r="AG48" s="22"/>
       <c r="AH48" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>15</v>
@@ -5269,63 +5269,63 @@
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
       <c r="G49" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H49" s="71"/>
       <c r="I49" s="71"/>
       <c r="J49" s="71"/>
       <c r="K49" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L49" s="70"/>
       <c r="M49" s="70"/>
       <c r="N49" s="70"/>
       <c r="O49" s="70"/>
       <c r="P49" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q49" s="70"/>
       <c r="R49" s="71"/>
       <c r="S49" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U49" s="67">
         <v>11</v>
       </c>
       <c r="V49" s="60"/>
       <c r="W49" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X49" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y49" s="25"/>
       <c r="Z49" s="25" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA49" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB49" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC49" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
       <c r="AF49" s="26"/>
       <c r="AG49" s="22"/>
       <c r="AH49" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>16</v>
@@ -5335,63 +5335,63 @@
       <c r="E50" s="16"/>
       <c r="F50" s="18"/>
       <c r="G50" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H50" s="71"/>
       <c r="I50" s="71"/>
       <c r="J50" s="71"/>
       <c r="K50" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L50" s="70"/>
       <c r="M50" s="70"/>
       <c r="N50" s="70"/>
       <c r="O50" s="70"/>
       <c r="P50" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q50" s="70"/>
       <c r="R50" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S50" s="71"/>
       <c r="T50" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U50" s="67">
         <v>5</v>
       </c>
       <c r="V50" s="61"/>
       <c r="W50" s="61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X50" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y50" s="30"/>
       <c r="Z50" s="30" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA50" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB50" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC50" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD50" s="28"/>
       <c r="AE50" s="28"/>
       <c r="AF50" s="31"/>
       <c r="AG50" s="22"/>
       <c r="AH50" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="14">
         <v>131</v>
@@ -5401,63 +5401,63 @@
       <c r="E51" s="16"/>
       <c r="F51" s="18"/>
       <c r="G51" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H51" s="71"/>
       <c r="I51" s="71"/>
       <c r="J51" s="71"/>
       <c r="K51" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L51" s="70"/>
       <c r="M51" s="70"/>
       <c r="N51" s="70"/>
       <c r="O51" s="70"/>
       <c r="P51" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q51" s="70"/>
       <c r="R51" s="71"/>
       <c r="S51" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T51" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U51" s="67">
         <v>11</v>
       </c>
       <c r="V51" s="61"/>
       <c r="W51" s="61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X51" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y51" s="30"/>
       <c r="Z51" s="30" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AA51" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB51" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC51" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD51" s="28"/>
       <c r="AE51" s="28"/>
       <c r="AF51" s="31"/>
       <c r="AG51" s="22"/>
       <c r="AH51" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" s="33">
         <v>126</v>
@@ -5471,13 +5471,13 @@
       <c r="E52" s="35"/>
       <c r="F52" s="37"/>
       <c r="G52" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H52" s="72"/>
       <c r="I52" s="72"/>
       <c r="J52" s="72"/>
       <c r="K52" s="72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L52" s="72"/>
       <c r="M52" s="72"/>
@@ -5485,49 +5485,49 @@
       <c r="O52" s="72"/>
       <c r="P52" s="72"/>
       <c r="Q52" s="72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R52" s="72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S52" s="72"/>
       <c r="T52" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U52" s="68">
         <v>6</v>
       </c>
       <c r="V52" s="62"/>
       <c r="W52" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X52" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y52" s="39"/>
       <c r="Z52" s="39" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA52" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB52" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC52" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD52" s="36"/>
       <c r="AE52" s="36"/>
       <c r="AF52" s="40"/>
       <c r="AG52" s="41"/>
       <c r="AH52" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>9</v>
@@ -5537,13 +5537,13 @@
       <c r="E53" s="35"/>
       <c r="F53" s="37"/>
       <c r="G53" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H53" s="72"/>
       <c r="I53" s="72"/>
       <c r="J53" s="72"/>
       <c r="K53" s="72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L53" s="72"/>
       <c r="M53" s="72"/>
@@ -5551,49 +5551,49 @@
       <c r="O53" s="72"/>
       <c r="P53" s="72"/>
       <c r="Q53" s="72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R53" s="72"/>
       <c r="S53" s="72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T53" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U53" s="68">
         <v>12</v>
       </c>
       <c r="V53" s="62"/>
       <c r="W53" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X53" s="64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y53" s="39"/>
       <c r="Z53" s="39" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA53" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB53" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC53" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD53" s="36"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="40"/>
       <c r="AG53" s="41"/>
       <c r="AH53" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>10</v>
@@ -5603,13 +5603,13 @@
       <c r="E54" s="35"/>
       <c r="F54" s="37"/>
       <c r="G54" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H54" s="73"/>
       <c r="I54" s="73"/>
       <c r="J54" s="73"/>
       <c r="K54" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L54" s="73"/>
       <c r="M54" s="73"/>
@@ -5617,49 +5617,49 @@
       <c r="O54" s="73"/>
       <c r="P54" s="73"/>
       <c r="Q54" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R54" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S54" s="73"/>
       <c r="T54" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U54" s="68">
         <v>6</v>
       </c>
       <c r="V54" s="63"/>
       <c r="W54" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X54" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y54" s="46"/>
       <c r="Z54" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA54" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB54" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC54" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD54" s="44"/>
       <c r="AE54" s="44"/>
       <c r="AF54" s="47"/>
       <c r="AG54" s="41"/>
       <c r="AH54" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>11</v>
@@ -5669,13 +5669,13 @@
       <c r="E55" s="35"/>
       <c r="F55" s="37"/>
       <c r="G55" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H55" s="73"/>
       <c r="I55" s="73"/>
       <c r="J55" s="73"/>
       <c r="K55" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L55" s="73"/>
       <c r="M55" s="73"/>
@@ -5683,49 +5683,49 @@
       <c r="O55" s="73"/>
       <c r="P55" s="73"/>
       <c r="Q55" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R55" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S55" s="73"/>
       <c r="T55" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U55" s="68">
         <v>6</v>
       </c>
       <c r="V55" s="63"/>
       <c r="W55" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X55" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y55" s="46"/>
       <c r="Z55" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA55" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB55" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC55" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD55" s="44"/>
       <c r="AE55" s="44"/>
       <c r="AF55" s="47"/>
       <c r="AG55" s="41"/>
       <c r="AH55" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>12</v>
@@ -5735,13 +5735,13 @@
       <c r="E56" s="35"/>
       <c r="F56" s="37"/>
       <c r="G56" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H56" s="73"/>
       <c r="I56" s="73"/>
       <c r="J56" s="73"/>
       <c r="K56" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L56" s="73"/>
       <c r="M56" s="73"/>
@@ -5749,49 +5749,49 @@
       <c r="O56" s="73"/>
       <c r="P56" s="73"/>
       <c r="Q56" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R56" s="73"/>
       <c r="S56" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T56" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U56" s="68">
         <v>12</v>
       </c>
       <c r="V56" s="63"/>
       <c r="W56" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X56" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y56" s="46"/>
       <c r="Z56" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA56" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB56" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC56" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD56" s="44"/>
       <c r="AE56" s="44"/>
       <c r="AF56" s="47"/>
       <c r="AG56" s="41"/>
       <c r="AH56" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>13</v>
@@ -5801,13 +5801,13 @@
       <c r="E57" s="35"/>
       <c r="F57" s="37"/>
       <c r="G57" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H57" s="73"/>
       <c r="I57" s="73"/>
       <c r="J57" s="73"/>
       <c r="K57" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L57" s="73"/>
       <c r="M57" s="73"/>
@@ -5815,49 +5815,49 @@
       <c r="O57" s="73"/>
       <c r="P57" s="73"/>
       <c r="Q57" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R57" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S57" s="73"/>
       <c r="T57" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U57" s="68">
         <v>6</v>
       </c>
       <c r="V57" s="63"/>
       <c r="W57" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X57" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y57" s="46"/>
       <c r="Z57" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA57" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB57" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC57" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD57" s="44"/>
       <c r="AE57" s="44"/>
       <c r="AF57" s="47"/>
       <c r="AG57" s="41"/>
       <c r="AH57" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>14</v>
@@ -5867,13 +5867,13 @@
       <c r="E58" s="35"/>
       <c r="F58" s="37"/>
       <c r="G58" s="44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H58" s="73"/>
       <c r="I58" s="73"/>
       <c r="J58" s="73"/>
       <c r="K58" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L58" s="73"/>
       <c r="M58" s="73"/>
@@ -5881,49 +5881,49 @@
       <c r="O58" s="73"/>
       <c r="P58" s="73"/>
       <c r="Q58" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R58" s="73"/>
       <c r="S58" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T58" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U58" s="68">
         <v>12</v>
       </c>
       <c r="V58" s="63"/>
       <c r="W58" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X58" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y58" s="46"/>
       <c r="Z58" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA58" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB58" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC58" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD58" s="44"/>
       <c r="AE58" s="44"/>
       <c r="AF58" s="47"/>
       <c r="AG58" s="41"/>
       <c r="AH58" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>15</v>
@@ -5933,13 +5933,13 @@
       <c r="E59" s="35"/>
       <c r="F59" s="37"/>
       <c r="G59" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H59" s="73"/>
       <c r="I59" s="73"/>
       <c r="J59" s="73"/>
       <c r="K59" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L59" s="73"/>
       <c r="M59" s="73"/>
@@ -5947,49 +5947,49 @@
       <c r="O59" s="73"/>
       <c r="P59" s="73"/>
       <c r="Q59" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R59" s="73"/>
       <c r="S59" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T59" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U59" s="68">
         <v>12</v>
       </c>
       <c r="V59" s="63"/>
       <c r="W59" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X59" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y59" s="46"/>
       <c r="Z59" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA59" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB59" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC59" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD59" s="44"/>
       <c r="AE59" s="44"/>
       <c r="AF59" s="47"/>
       <c r="AG59" s="41"/>
       <c r="AH59" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>16</v>
@@ -5999,13 +5999,13 @@
       <c r="E60" s="35"/>
       <c r="F60" s="37"/>
       <c r="G60" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H60" s="73"/>
       <c r="I60" s="73"/>
       <c r="J60" s="73"/>
       <c r="K60" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L60" s="73"/>
       <c r="M60" s="73"/>
@@ -6013,49 +6013,49 @@
       <c r="O60" s="73"/>
       <c r="P60" s="73"/>
       <c r="Q60" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R60" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S60" s="73"/>
       <c r="T60" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U60" s="68">
         <v>6</v>
       </c>
       <c r="V60" s="63"/>
       <c r="W60" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X60" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y60" s="46"/>
       <c r="Z60" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA60" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB60" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC60" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD60" s="44"/>
       <c r="AE60" s="44"/>
       <c r="AF60" s="47"/>
       <c r="AG60" s="41"/>
       <c r="AH60" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61" s="33">
         <v>131</v>
@@ -6065,13 +6065,13 @@
       <c r="E61" s="35"/>
       <c r="F61" s="37"/>
       <c r="G61" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H61" s="73"/>
       <c r="I61" s="73"/>
       <c r="J61" s="73"/>
       <c r="K61" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L61" s="73"/>
       <c r="M61" s="73"/>
@@ -6079,44 +6079,44 @@
       <c r="O61" s="73"/>
       <c r="P61" s="73"/>
       <c r="Q61" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R61" s="73"/>
       <c r="S61" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T61" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U61" s="68">
         <v>12</v>
       </c>
       <c r="V61" s="63"/>
       <c r="W61" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X61" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y61" s="46"/>
       <c r="Z61" s="46" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="AA61" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB61" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC61" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD61" s="44"/>
       <c r="AE61" s="44"/>
       <c r="AF61" s="47"/>
       <c r="AG61" s="41"/>
       <c r="AH61" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6263,12 +6263,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/expt_smry_cptac_gl.xlsx
+++ b/inst/extdata/expt_smry_cptac_gl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="16" r:id="rId1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="141">
   <si>
     <t>Description</t>
   </si>
@@ -766,6 +766,33 @@
   </si>
   <si>
     <t>TMT2</t>
+  </si>
+  <si>
+    <t>132N</t>
+  </si>
+  <si>
+    <t>132C</t>
+  </si>
+  <si>
+    <t>133N</t>
+  </si>
+  <si>
+    <t>133C</t>
+  </si>
+  <si>
+    <t>134N</t>
+  </si>
+  <si>
+    <t>6-plex channel</t>
+  </si>
+  <si>
+    <t>10-plex channel</t>
+  </si>
+  <si>
+    <t>11-plex channel</t>
+  </si>
+  <si>
+    <t>16-plex channel</t>
   </si>
 </sst>
 </file>
@@ -972,6 +999,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="44">
@@ -1995,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:Z1048576"/>
@@ -6148,127 +6176,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" s="14">
+        <v>126</v>
+      </c>
+      <c r="D2" s="14">
+        <v>126</v>
+      </c>
+      <c r="E2" s="14">
+        <v>126</v>
+      </c>
+      <c r="F2" s="14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" s="14">
+        <v>127</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" s="14">
+        <v>128</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" s="14">
+        <v>129</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6" s="14">
+        <v>130</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7" s="14">
+        <v>131</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D11" s="14">
+        <v>131</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F13" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F14" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F15" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F16" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/expt_smry_cptac_gl.xlsx
+++ b/inst/extdata/expt_smry_cptac_gl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0EA765-1423-4F67-BBF5-5511A2050BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7922C5D3-1E8C-46A5-AF7F-B1E24F0A9030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,20 +44,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> sample IDs</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B20C8FE2-061F-4B76-8822-148574E07B1C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Enter "?setup_expts" under an </t>
+          <t xml:space="preserve"> sample IDs 
+(Enter "?setup_expts" under an </t>
         </r>
         <r>
           <rPr>
@@ -76,27 +64,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> console for details of the column keys.
-Column keys </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A1 - H1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> are reserved.</t>
+          <t xml:space="preserve"> console for details of the column keys.)</t>
         </r>
       </text>
     </comment>
@@ -109,7 +77,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The file names of RAW MS data. Use file </t>
+          <t xml:space="preserve">The file names of RAW MS data
+(Enter alternatively the file names in </t>
         </r>
         <r>
           <rPr>
@@ -128,7 +97,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> if more than one RAW file per TMT set</t>
+          <t xml:space="preserve"> if more than one RAW file per TMT set)</t>
         </r>
       </text>
     </comment>
@@ -141,7 +110,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Sample IDs being references</t>
+          <t>Non-void character strings to indicate refernce channels.</t>
         </r>
       </text>
     </comment>
@@ -154,7 +123,27 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Samples will be included in analysis</t>
+          <t xml:space="preserve">Samples to be selected for analyses 
+(Enter "?setup_expts" under an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> console for details of the column keys.)</t>
         </r>
       </text>
     </comment>
@@ -1392,7 +1381,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1429,6 +1418,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1764,10 +1759,20 @@
   <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1776,10 +1781,10 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1877,13 +1882,13 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="13">
         <v>126</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -1930,7 +1935,7 @@
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
@@ -1977,7 +1982,7 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
@@ -2027,7 +2032,7 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
@@ -2074,7 +2079,7 @@
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
@@ -2121,7 +2126,7 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
@@ -2168,7 +2173,7 @@
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
@@ -2215,7 +2220,7 @@
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
@@ -2262,7 +2267,7 @@
       <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G10" t="s">
@@ -2309,7 +2314,7 @@
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="13">
         <v>131</v>
       </c>
       <c r="G11" t="s">
@@ -2356,13 +2361,13 @@
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>126</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
       <c r="G12" t="s">
@@ -2409,7 +2414,7 @@
       <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
@@ -2456,7 +2461,7 @@
       <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
@@ -2506,7 +2511,7 @@
       <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
@@ -2553,7 +2558,7 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
@@ -2600,7 +2605,7 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
@@ -2647,7 +2652,7 @@
       <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
@@ -2694,7 +2699,7 @@
       <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
@@ -2741,7 +2746,7 @@
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G20" t="s">
@@ -2788,7 +2793,7 @@
       <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>131</v>
       </c>
       <c r="G21" t="s">
@@ -2835,13 +2840,13 @@
       <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="13">
         <v>126</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="13">
         <v>1</v>
       </c>
       <c r="G22" t="s">
@@ -2888,7 +2893,7 @@
       <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G23" t="s">
@@ -2935,7 +2940,7 @@
       <c r="A24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G24" t="s">
@@ -2982,7 +2987,7 @@
       <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
@@ -3029,7 +3034,7 @@
       <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
@@ -3076,7 +3081,7 @@
       <c r="A27" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
@@ -3123,7 +3128,7 @@
       <c r="A28" t="s">
         <v>99</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
@@ -3170,7 +3175,7 @@
       <c r="A29" t="s">
         <v>100</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="s">
@@ -3217,7 +3222,7 @@
       <c r="A30" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G30" t="s">
@@ -3264,7 +3269,7 @@
       <c r="A31" t="s">
         <v>102</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="13">
         <v>131</v>
       </c>
       <c r="G31" t="s">
@@ -3311,13 +3316,13 @@
       <c r="A32" t="s">
         <v>103</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="13">
         <v>126</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="13">
         <v>4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="13">
         <v>1</v>
       </c>
       <c r="G32" t="s">
@@ -3364,7 +3369,7 @@
       <c r="A33" t="s">
         <v>105</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G33" t="s">
@@ -3411,7 +3416,7 @@
       <c r="A34" t="s">
         <v>107</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G34" t="s">
@@ -3458,7 +3463,7 @@
       <c r="A35" t="s">
         <v>108</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
@@ -3505,7 +3510,7 @@
       <c r="A36" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
@@ -3552,7 +3557,7 @@
       <c r="A37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G37" t="s">
@@ -3599,7 +3604,7 @@
       <c r="A38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
@@ -3646,7 +3651,7 @@
       <c r="A39" t="s">
         <v>112</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G39" t="s">
@@ -3693,7 +3698,7 @@
       <c r="A40" t="s">
         <v>113</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G40" t="s">
@@ -3740,7 +3745,7 @@
       <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="13">
         <v>131</v>
       </c>
       <c r="G41" t="s">
@@ -3787,13 +3792,13 @@
       <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="13">
         <v>126</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="13">
         <v>5</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="13">
         <v>1</v>
       </c>
       <c r="G42" t="s">
@@ -3840,7 +3845,7 @@
       <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G43" t="s">
@@ -3887,7 +3892,7 @@
       <c r="A44" t="s">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G44" t="s">
@@ -3934,7 +3939,7 @@
       <c r="A45" t="s">
         <v>70</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
@@ -3981,7 +3986,7 @@
       <c r="A46" t="s">
         <v>71</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
@@ -4028,7 +4033,7 @@
       <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G47" t="s">
@@ -4075,7 +4080,7 @@
       <c r="A48" t="s">
         <v>73</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G48" t="s">
@@ -4122,7 +4127,7 @@
       <c r="A49" t="s">
         <v>74</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G49" t="s">
@@ -4169,7 +4174,7 @@
       <c r="A50" t="s">
         <v>75</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
@@ -4216,7 +4221,7 @@
       <c r="A51" t="s">
         <v>76</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="13">
         <v>131</v>
       </c>
       <c r="G51" t="s">
@@ -4263,13 +4268,13 @@
       <c r="A52" t="s">
         <v>77</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="13">
         <v>126</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="13">
         <v>6</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="13">
         <v>1</v>
       </c>
       <c r="G52" t="s">
@@ -4316,7 +4321,7 @@
       <c r="A53" t="s">
         <v>79</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G53" t="s">
@@ -4363,7 +4368,7 @@
       <c r="A54" t="s">
         <v>81</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G54" t="s">
@@ -4410,7 +4415,7 @@
       <c r="A55" t="s">
         <v>82</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
@@ -4457,7 +4462,7 @@
       <c r="A56" t="s">
         <v>83</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
@@ -4504,7 +4509,7 @@
       <c r="A57" t="s">
         <v>84</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G57" t="s">
@@ -4551,7 +4556,7 @@
       <c r="A58" t="s">
         <v>85</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G58" t="s">
@@ -4598,7 +4603,7 @@
       <c r="A59" t="s">
         <v>86</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G59" t="s">
@@ -4645,7 +4650,7 @@
       <c r="A60" t="s">
         <v>87</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G60" t="s">
@@ -4692,7 +4697,7 @@
       <c r="A61" t="s">
         <v>88</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="13">
         <v>131</v>
       </c>
       <c r="G61" t="s">
@@ -4737,6 +4742,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/inst/extdata/expt_smry_cptac_gl.xlsx
+++ b/inst/extdata/expt_smry_cptac_gl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7922C5D3-1E8C-46A5-AF7F-B1E24F0A9030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EAA722-D55A-4F85-AFA4-8725F0514F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> sample IDs 
-(Enter "?setup_expts" under an </t>
+(Enter "?load_expts" under an </t>
         </r>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Samples to be selected for analyses 
-(Enter "?setup_expts" under an </t>
+(Enter "?load_expts" under an </t>
         </r>
         <r>
           <rPr>
@@ -1758,9 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D86F0B-801D-4AD7-8F72-A199D58F7E5A}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
